--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cptnemo2005/Desktop/SEIR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024A0771-75A9-FA42-A2B5-5CFD1E644020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DA3D02-40CE-FC4B-A256-3B9FAB11D65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{783FC6C8-4FB1-5540-99C4-BBEE35314898}"/>
+    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{783FC6C8-4FB1-5540-99C4-BBEE35314898}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SC" sheetId="5" r:id="rId2"/>
     <sheet name="SC_WFH" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="WFH" sheetId="3" r:id="rId4"/>
+    <sheet name="50%" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="26">
   <si>
     <t>time</t>
   </si>
@@ -102,22 +102,30 @@
   <si>
     <t>sc</t>
   </si>
+  <si>
+    <t>bc_day</t>
+  </si>
+  <si>
+    <t>wfh_50_day</t>
+  </si>
+  <si>
+    <t>wfh_day</t>
+  </si>
+  <si>
+    <t>sc_wfh_day</t>
+  </si>
+  <si>
+    <t>sc_day</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,7 +160,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,24 +477,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A92AC7-F0B6-A04C-B7C9-D4D2A720689B}">
-  <dimension ref="A1:V201"/>
+  <dimension ref="A1:AB201"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="10.83203125" style="2"/>
     <col min="10" max="10" width="21" style="2" customWidth="1"/>
-    <col min="11" max="19" width="10.83203125" style="2"/>
-    <col min="20" max="20" width="28.1640625" style="2" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="19" width="17.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19" style="2" customWidth="1"/>
     <col min="21" max="21" width="17.6640625" style="2" customWidth="1"/>
     <col min="22" max="22" width="17.83203125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="2"/>
+    <col min="23" max="23" width="15" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,23 +542,38 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>86400</v>
       </c>
@@ -601,14 +628,34 @@
       <c r="T2">
         <v>100</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2">
         <v>100</v>
       </c>
       <c r="V2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X2">
+        <f>R3-R2</f>
+        <v>100</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AB2" si="0">S3-S2</f>
+        <v>100</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>172800</v>
       </c>
@@ -663,14 +710,34 @@
       <c r="T3">
         <v>200</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3">
         <v>200</v>
       </c>
       <c r="V3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X3">
+        <f t="shared" ref="X3:X49" si="1">R4-R3</f>
+        <v>100</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y50" si="2">S4-S3</f>
+        <v>100</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z50" si="3">T4-T3</f>
+        <v>100</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA50" si="4">U4-U3</f>
+        <v>100</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB50" si="5">V4-V3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>259200</v>
       </c>
@@ -725,14 +792,34 @@
       <c r="T4">
         <v>300</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4">
         <v>300</v>
       </c>
       <c r="V4">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>345600</v>
       </c>
@@ -787,14 +874,34 @@
       <c r="T5">
         <v>400</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5">
         <v>400</v>
       </c>
       <c r="V5">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>432000</v>
       </c>
@@ -849,14 +956,34 @@
       <c r="T6">
         <v>500</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6">
         <v>500</v>
       </c>
       <c r="V6">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>518400</v>
       </c>
@@ -911,14 +1038,34 @@
       <c r="T7">
         <v>900</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7">
         <v>1000</v>
       </c>
       <c r="V7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>604800</v>
       </c>
@@ -973,14 +1120,34 @@
       <c r="T8">
         <v>2100</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8">
         <v>1400</v>
       </c>
       <c r="V8">
         <v>2500</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>691200</v>
       </c>
@@ -1035,14 +1202,34 @@
       <c r="T9">
         <v>3000</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9">
         <v>2100</v>
       </c>
       <c r="V9">
         <v>3300</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>777600</v>
       </c>
@@ -1097,14 +1284,34 @@
       <c r="T10">
         <v>4600</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10">
         <v>2600</v>
       </c>
       <c r="V10">
         <v>3600</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="5"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>864000</v>
       </c>
@@ -1159,14 +1366,34 @@
       <c r="T11">
         <v>6200</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11">
         <v>3200</v>
       </c>
       <c r="V11">
         <v>5800</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>3100</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>6900</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="4"/>
+        <v>3300</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="5"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>950400</v>
       </c>
@@ -1221,14 +1448,34 @@
       <c r="T12">
         <v>13100</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12">
         <v>6500</v>
       </c>
       <c r="V12">
         <v>13300</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>5300</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="4"/>
+        <v>6300</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="5"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1036800</v>
       </c>
@@ -1283,14 +1530,34 @@
       <c r="T13">
         <v>18400</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13">
         <v>12800</v>
       </c>
       <c r="V13">
         <v>18900</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>9700</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="4"/>
+        <v>3700</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="5"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1123200</v>
       </c>
@@ -1345,14 +1612,34 @@
       <c r="T14">
         <v>26200</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14">
         <v>16500</v>
       </c>
       <c r="V14">
         <v>20200</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>8200</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>7300</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="5"/>
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1209600</v>
       </c>
@@ -1407,14 +1694,34 @@
       <c r="T15">
         <v>33500</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15">
         <v>20000</v>
       </c>
       <c r="V15">
         <v>35900</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>15200</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>23600</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>26000</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="4"/>
+        <v>19200</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="5"/>
+        <v>32300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1296000</v>
       </c>
@@ -1469,14 +1776,34 @@
       <c r="T16">
         <v>59500</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16">
         <v>39200</v>
       </c>
       <c r="V16">
         <v>68200</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>34300</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>33100</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>24200</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="4"/>
+        <v>36100</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="5"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1382400</v>
       </c>
@@ -1531,14 +1858,34 @@
       <c r="T17">
         <v>83700</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17">
         <v>75300</v>
       </c>
       <c r="V17">
         <v>95200</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>47200</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>29200</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>21800</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="5"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1468800</v>
       </c>
@@ -1585,22 +1932,42 @@
         <v>17</v>
       </c>
       <c r="R18" s="2">
-        <v>135900</v>
+        <v>136000</v>
       </c>
       <c r="S18">
-        <v>101100</v>
+        <v>101200</v>
       </c>
       <c r="T18">
-        <v>112800</v>
-      </c>
-      <c r="U18" s="4">
-        <v>97000</v>
+        <v>112900</v>
+      </c>
+      <c r="U18">
+        <v>97100</v>
       </c>
       <c r="V18">
-        <v>102500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>102600</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>55500</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="2"/>
+        <v>38300</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>34900</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="4"/>
+        <v>14300</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="5"/>
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1555200</v>
       </c>
@@ -1647,22 +2014,42 @@
         <v>18</v>
       </c>
       <c r="R19" s="2">
-        <v>191300</v>
+        <v>191500</v>
       </c>
       <c r="S19">
-        <v>139300</v>
+        <v>139500</v>
       </c>
       <c r="T19">
-        <v>147600</v>
-      </c>
-      <c r="U19" s="4">
-        <v>111200</v>
+        <v>147800</v>
+      </c>
+      <c r="U19">
+        <v>111400</v>
       </c>
       <c r="V19">
-        <v>181300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>181400</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>73600</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="2"/>
+        <v>96100</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>83700</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="4"/>
+        <v>78500</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="5"/>
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1641600</v>
       </c>
@@ -1709,22 +2096,42 @@
         <v>19</v>
       </c>
       <c r="R20" s="2">
-        <v>264800</v>
+        <v>265100</v>
       </c>
       <c r="S20">
-        <v>235300</v>
+        <v>235600</v>
       </c>
       <c r="T20">
-        <v>231200</v>
-      </c>
-      <c r="U20" s="4">
-        <v>189600</v>
+        <v>231500</v>
+      </c>
+      <c r="U20">
+        <v>189900</v>
       </c>
       <c r="V20">
-        <v>310200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+        <v>310400</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>113200</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="2"/>
+        <v>138000</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>99300</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="4"/>
+        <v>111200</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="5"/>
+        <v>105900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1728000</v>
       </c>
@@ -1771,22 +2178,42 @@
         <v>20</v>
       </c>
       <c r="R21" s="2">
-        <v>377900</v>
+        <v>378300</v>
       </c>
       <c r="S21">
-        <v>373200</v>
+        <v>373600</v>
       </c>
       <c r="T21">
-        <v>330400</v>
-      </c>
-      <c r="U21" s="4">
-        <v>300700</v>
+        <v>330800</v>
+      </c>
+      <c r="U21">
+        <v>301100</v>
       </c>
       <c r="V21">
-        <v>416000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+        <v>416300</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>187500</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="2"/>
+        <v>65500</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>116500</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="4"/>
+        <v>72800</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="5"/>
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1814400</v>
       </c>
@@ -1833,22 +2260,42 @@
         <v>21</v>
       </c>
       <c r="R22" s="2">
-        <v>564900</v>
+        <v>565800</v>
       </c>
       <c r="S22">
-        <v>438300</v>
+        <v>439100</v>
       </c>
       <c r="T22">
-        <v>446500</v>
-      </c>
-      <c r="U22" s="4">
-        <v>373000</v>
+        <v>447300</v>
+      </c>
+      <c r="U22">
+        <v>373900</v>
       </c>
       <c r="V22">
-        <v>451000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+        <v>451800</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>199600</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="2"/>
+        <v>138600</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>123300</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="5"/>
+        <v>278800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1900800</v>
       </c>
@@ -1895,22 +2342,42 @@
         <v>22</v>
       </c>
       <c r="R23" s="2">
-        <v>764000</v>
+        <v>765400</v>
       </c>
       <c r="S23">
-        <v>575800</v>
+        <v>577700</v>
       </c>
       <c r="T23">
-        <v>568600</v>
-      </c>
-      <c r="U23" s="4">
-        <v>422600</v>
+        <v>570600</v>
+      </c>
+      <c r="U23">
+        <v>423900</v>
       </c>
       <c r="V23">
-        <v>728400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>730600</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>238400</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="2"/>
+        <v>314000</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>206300</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="4"/>
+        <v>232500</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="5"/>
+        <v>359700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1987200</v>
       </c>
@@ -1957,22 +2424,42 @@
         <v>23</v>
       </c>
       <c r="R24" s="2">
-        <v>1001300</v>
+        <v>1003800</v>
       </c>
       <c r="S24">
-        <v>888700</v>
+        <v>891700</v>
       </c>
       <c r="T24">
-        <v>774100</v>
-      </c>
-      <c r="U24" s="4">
-        <v>654400</v>
+        <v>776900</v>
+      </c>
+      <c r="U24">
+        <v>656400</v>
       </c>
       <c r="V24">
-        <v>1087300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1090300</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>252500</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="2"/>
+        <v>358600</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>242400</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="4"/>
+        <v>253200</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="5"/>
+        <v>231800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2073600</v>
       </c>
@@ -2019,22 +2506,42 @@
         <v>24</v>
       </c>
       <c r="R25" s="2">
-        <v>1252300</v>
+        <v>1256300</v>
       </c>
       <c r="S25">
-        <v>1246700</v>
+        <v>1250300</v>
       </c>
       <c r="T25">
-        <v>1015200</v>
-      </c>
-      <c r="U25" s="4">
-        <v>907100</v>
+        <v>1019300</v>
+      </c>
+      <c r="U25">
+        <v>909600</v>
       </c>
       <c r="V25">
-        <v>1318900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1322100</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="1"/>
+        <v>430800</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="2"/>
+        <v>170100</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>301200</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="4"/>
+        <v>160600</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="5"/>
+        <v>99600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2160000</v>
       </c>
@@ -2081,22 +2588,42 @@
         <v>25</v>
       </c>
       <c r="R26" s="2">
-        <v>1681300</v>
+        <v>1687100</v>
       </c>
       <c r="S26">
-        <v>1415500</v>
+        <v>1420400</v>
       </c>
       <c r="T26">
-        <v>1314900</v>
-      </c>
-      <c r="U26" s="4">
-        <v>1067100</v>
+        <v>1320500</v>
+      </c>
+      <c r="U26">
+        <v>1070200</v>
       </c>
       <c r="V26">
-        <v>1416300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1421700</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>351200</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="2"/>
+        <v>294000</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>240900</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="4"/>
+        <v>126700</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="5"/>
+        <v>470600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2246400</v>
       </c>
@@ -2143,22 +2670,42 @@
         <v>26</v>
       </c>
       <c r="R27" s="2">
-        <v>2029500</v>
+        <v>2038300</v>
       </c>
       <c r="S27">
-        <v>1703800</v>
+        <v>1714400</v>
       </c>
       <c r="T27">
-        <v>1549400</v>
-      </c>
-      <c r="U27" s="4">
-        <v>1190700</v>
+        <v>1561400</v>
+      </c>
+      <c r="U27">
+        <v>1196900</v>
       </c>
       <c r="V27">
-        <v>1879800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1892300</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>288200</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="2"/>
+        <v>449600</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>293800</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="4"/>
+        <v>355400</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="5"/>
+        <v>386000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2332800</v>
       </c>
@@ -2205,22 +2752,42 @@
         <v>27</v>
       </c>
       <c r="R28" s="2">
-        <v>2310400</v>
+        <v>2326500</v>
       </c>
       <c r="S28">
-        <v>2147400</v>
+        <v>2164000</v>
       </c>
       <c r="T28">
-        <v>1838100</v>
-      </c>
-      <c r="U28" s="4">
-        <v>1540300</v>
+        <v>1855200</v>
+      </c>
+      <c r="U28">
+        <v>1552300</v>
       </c>
       <c r="V28">
-        <v>2260200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2278300</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="1"/>
+        <v>227000</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="2"/>
+        <v>355300</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>268700</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="4"/>
+        <v>269400</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="5"/>
+        <v>178900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2419200</v>
       </c>
@@ -2267,22 +2834,42 @@
         <v>28</v>
       </c>
       <c r="R29" s="2">
-        <v>2528400</v>
+        <v>2553500</v>
       </c>
       <c r="S29">
-        <v>2500500</v>
+        <v>2519300</v>
       </c>
       <c r="T29">
-        <v>2099300</v>
-      </c>
-      <c r="U29" s="4">
-        <v>1806200</v>
+        <v>2123900</v>
+      </c>
+      <c r="U29">
+        <v>1821700</v>
       </c>
       <c r="V29">
-        <v>2437800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2457200</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="1"/>
+        <v>314000</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="2"/>
+        <v>148200</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>322000</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="4"/>
+        <v>170200</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="5"/>
+        <v>88400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2505600</v>
       </c>
@@ -2329,22 +2916,42 @@
         <v>29</v>
       </c>
       <c r="R30" s="2">
-        <v>2830500</v>
+        <v>2867500</v>
       </c>
       <c r="S30">
-        <v>2640500</v>
+        <v>2667500</v>
       </c>
       <c r="T30">
-        <v>2414300</v>
-      </c>
-      <c r="U30" s="4">
-        <v>1973400</v>
+        <v>2445900</v>
+      </c>
+      <c r="U30">
+        <v>1991900</v>
       </c>
       <c r="V30">
-        <v>2511500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2545600</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="1"/>
+        <v>147600</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="2"/>
+        <v>183500</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>174000</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="4"/>
+        <v>155900</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="5"/>
+        <v>236800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2592000</v>
       </c>
@@ -2391,22 +2998,42 @@
         <v>30</v>
       </c>
       <c r="R31" s="2">
-        <v>2963400</v>
+        <v>3015100</v>
       </c>
       <c r="S31">
-        <v>2801800</v>
+        <v>2851000</v>
       </c>
       <c r="T31">
-        <v>2563400</v>
-      </c>
-      <c r="U31" s="4">
-        <v>2110600</v>
+        <v>2619900</v>
+      </c>
+      <c r="U31">
+        <v>2147800</v>
       </c>
       <c r="V31">
-        <v>2717700</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2782400</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="1"/>
+        <v>83100</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="2"/>
+        <v>192100</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>150400</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="4"/>
+        <v>238100</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="5"/>
+        <v>140600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2678400</v>
       </c>
@@ -2453,22 +3080,42 @@
         <v>31</v>
       </c>
       <c r="R32" s="2">
-        <v>3013300</v>
+        <v>3098200</v>
       </c>
       <c r="S32">
-        <v>2962400</v>
+        <v>3043100</v>
       </c>
       <c r="T32">
-        <v>2690500</v>
-      </c>
-      <c r="U32" s="4">
-        <v>2314200</v>
+        <v>2770300</v>
+      </c>
+      <c r="U32">
+        <v>2385900</v>
       </c>
       <c r="V32">
-        <v>2832500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2923000</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="1"/>
+        <v>52400</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="2"/>
+        <v>106000</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>104400</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="4"/>
+        <v>133500</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="5"/>
+        <v>54100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2764800</v>
       </c>
@@ -2515,22 +3162,42 @@
         <v>32</v>
       </c>
       <c r="R33" s="2">
-        <v>3019800</v>
+        <v>3150600</v>
       </c>
       <c r="S33">
-        <v>3052800</v>
+        <v>3149100</v>
       </c>
       <c r="T33">
-        <v>2766900</v>
-      </c>
-      <c r="U33" s="4">
-        <v>2427500</v>
+        <v>2874700</v>
+      </c>
+      <c r="U33">
+        <v>2519400</v>
       </c>
       <c r="V33">
-        <v>2879600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2977100</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="1"/>
+        <v>66600</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="2"/>
+        <v>43000</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="3"/>
+        <v>120400</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="4"/>
+        <v>85200</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="5"/>
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2851200</v>
       </c>
@@ -2577,22 +3244,42 @@
         <v>33</v>
       </c>
       <c r="R34" s="2">
-        <v>3033300</v>
+        <v>3217200</v>
       </c>
       <c r="S34">
-        <v>3058800</v>
+        <v>3192100</v>
       </c>
       <c r="T34">
-        <v>2853600</v>
-      </c>
-      <c r="U34" s="4">
-        <v>2498700</v>
+        <v>2995100</v>
+      </c>
+      <c r="U34">
+        <v>2604600</v>
       </c>
       <c r="V34">
-        <v>2829800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3003300</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="1"/>
+        <v>23900</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="2"/>
+        <v>39900</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="3"/>
+        <v>57100</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="4"/>
+        <v>80500</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="5"/>
+        <v>49300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2937600</v>
       </c>
@@ -2639,22 +3326,42 @@
         <v>34</v>
       </c>
       <c r="R35" s="2">
-        <v>2986300</v>
+        <v>3241100</v>
       </c>
       <c r="S35">
-        <v>3007200</v>
+        <v>3232000</v>
       </c>
       <c r="T35">
-        <v>2831100</v>
-      </c>
-      <c r="U35" s="4">
-        <v>2503500</v>
+        <v>3052200</v>
+      </c>
+      <c r="U35">
+        <v>2685100</v>
       </c>
       <c r="V35">
-        <v>2756000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3052600</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="1"/>
+        <v>15100</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="2"/>
+        <v>36100</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="3"/>
+        <v>42200</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="4"/>
+        <v>75700</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="5"/>
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>3024000</v>
       </c>
@@ -2701,22 +3408,42 @@
         <v>35</v>
       </c>
       <c r="R36" s="2">
-        <v>2892500</v>
+        <v>3256200</v>
       </c>
       <c r="S36">
-        <v>2910700</v>
+        <v>3268100</v>
       </c>
       <c r="T36">
-        <v>2777700</v>
-      </c>
-      <c r="U36" s="4">
-        <v>2472300</v>
+        <v>3094400</v>
+      </c>
+      <c r="U36">
+        <v>2760800</v>
       </c>
       <c r="V36">
-        <v>2686800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3084100</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="1"/>
+        <v>8500</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="2"/>
+        <v>22200</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="3"/>
+        <v>24700</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="4"/>
+        <v>35200</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="5"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>3110400</v>
       </c>
@@ -2763,22 +3490,42 @@
         <v>36</v>
       </c>
       <c r="R37" s="2">
-        <v>2722900</v>
+        <v>3264700</v>
       </c>
       <c r="S37">
-        <v>2870300</v>
+        <v>3290300</v>
       </c>
       <c r="T37">
-        <v>2690300</v>
-      </c>
-      <c r="U37" s="4">
-        <v>2437200</v>
+        <v>3119100</v>
+      </c>
+      <c r="U37">
+        <v>2796000</v>
       </c>
       <c r="V37">
-        <v>2659300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3091800</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="1"/>
+        <v>12900</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="2"/>
+        <v>20100</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="3"/>
+        <v>25100</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="4"/>
+        <v>23900</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="5"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>3196800</v>
       </c>
@@ -2825,22 +3572,42 @@
         <v>37</v>
       </c>
       <c r="R38" s="2">
-        <v>2546800</v>
+        <v>3277600</v>
       </c>
       <c r="S38">
-        <v>2757000</v>
+        <v>3310400</v>
       </c>
       <c r="T38">
-        <v>2597500</v>
-      </c>
-      <c r="U38" s="4">
-        <v>2413500</v>
+        <v>3144200</v>
+      </c>
+      <c r="U38">
+        <v>2819900</v>
       </c>
       <c r="V38">
-        <v>2394800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3094900</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="2"/>
+        <v>14600</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="3"/>
+        <v>15200</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="4"/>
+        <v>26000</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="5"/>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>3283200</v>
       </c>
@@ -2887,22 +3654,42 @@
         <v>38</v>
       </c>
       <c r="R39" s="2">
-        <v>2323600</v>
+        <v>3281400</v>
       </c>
       <c r="S39">
-        <v>2470200</v>
+        <v>3325000</v>
       </c>
       <c r="T39">
-        <v>2416000</v>
-      </c>
-      <c r="U39" s="4">
-        <v>2217000</v>
+        <v>3159400</v>
+      </c>
+      <c r="U39">
+        <v>2845900</v>
       </c>
       <c r="V39">
-        <v>2063600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3106300</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="2"/>
+        <v>9400</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="3"/>
+        <v>11500</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="4"/>
+        <v>18800</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="5"/>
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>3369600</v>
       </c>
@@ -2949,22 +3736,42 @@
         <v>39</v>
       </c>
       <c r="R40" s="2">
-        <v>2085400</v>
+        <v>3285600</v>
       </c>
       <c r="S40">
-        <v>2135500</v>
+        <v>3334400</v>
       </c>
       <c r="T40">
-        <v>2195800</v>
-      </c>
-      <c r="U40" s="4">
-        <v>1991700</v>
+        <v>3170900</v>
+      </c>
+      <c r="U40">
+        <v>2864700</v>
       </c>
       <c r="V40">
-        <v>1852600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3117400</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="3"/>
+        <v>7900</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="4"/>
+        <v>7300</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="5"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>3456000</v>
       </c>
@@ -3011,22 +3818,42 @@
         <v>40</v>
       </c>
       <c r="R41" s="2">
-        <v>1674800</v>
+        <v>3288300</v>
       </c>
       <c r="S41">
-        <v>1977600</v>
+        <v>3340900</v>
       </c>
       <c r="T41">
-        <v>1913400</v>
-      </c>
-      <c r="U41" s="4">
-        <v>1844000</v>
+        <v>3178800</v>
+      </c>
+      <c r="U41">
+        <v>2872000</v>
       </c>
       <c r="V41">
-        <v>1758400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3120100</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="1"/>
+        <v>3100</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="2"/>
+        <v>6100</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="3"/>
+        <v>7600</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="4"/>
+        <v>8400</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>3542400</v>
       </c>
@@ -3073,22 +3900,42 @@
         <v>41</v>
       </c>
       <c r="R42" s="2">
-        <v>1341000</v>
+        <v>3291400</v>
       </c>
       <c r="S42">
-        <v>1696700</v>
+        <v>3347000</v>
       </c>
       <c r="T42">
-        <v>1687000</v>
-      </c>
-      <c r="U42" s="4">
-        <v>1728300</v>
+        <v>3186400</v>
+      </c>
+      <c r="U42">
+        <v>2880400</v>
       </c>
       <c r="V42">
-        <v>1308300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3121900</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="3"/>
+        <v>11300</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="4"/>
+        <v>5400</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="5"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>3628800</v>
       </c>
@@ -3135,22 +3982,42 @@
         <v>42</v>
       </c>
       <c r="R43" s="2">
-        <v>1064600</v>
+        <v>3294700</v>
       </c>
       <c r="S43">
-        <v>1265400</v>
+        <v>3351000</v>
       </c>
       <c r="T43">
-        <v>1413900</v>
-      </c>
-      <c r="U43" s="4">
-        <v>1389900</v>
+        <v>3197700</v>
+      </c>
+      <c r="U43">
+        <v>2885800</v>
       </c>
       <c r="V43">
-        <v>942000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3129700</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="1"/>
+        <v>7300</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="3"/>
+        <v>11100</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>3715200</v>
       </c>
@@ -3197,22 +4064,42 @@
         <v>43</v>
       </c>
       <c r="R44" s="2">
-        <v>846800</v>
+        <v>3302000</v>
       </c>
       <c r="S44">
-        <v>922600</v>
+        <v>3352200</v>
       </c>
       <c r="T44">
-        <v>1161700</v>
-      </c>
-      <c r="U44" s="4">
-        <v>1131200</v>
+        <v>3208800</v>
+      </c>
+      <c r="U44">
+        <v>2888300</v>
       </c>
       <c r="V44">
-        <v>776900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3136700</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="1"/>
+        <v>7700</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="3"/>
+        <v>6500</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="5"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>3801600</v>
       </c>
@@ -3259,22 +4146,42 @@
         <v>44</v>
       </c>
       <c r="R45" s="2">
-        <v>543600</v>
+        <v>3309700</v>
       </c>
       <c r="S45">
-        <v>775200</v>
+        <v>3353800</v>
       </c>
       <c r="T45">
-        <v>855300</v>
-      </c>
-      <c r="U45" s="4">
-        <v>966700</v>
+        <v>3215300</v>
+      </c>
+      <c r="U45">
+        <v>2890500</v>
       </c>
       <c r="V45">
-        <v>682300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3139900</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="1"/>
+        <v>7700</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="3"/>
+        <v>4800</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>3888000</v>
       </c>
@@ -3321,22 +4228,42 @@
         <v>45</v>
       </c>
       <c r="R46" s="2">
-        <v>396300</v>
+        <v>3317400</v>
       </c>
       <c r="S46">
-        <v>588400</v>
+        <v>3356000</v>
       </c>
       <c r="T46">
-        <v>683000</v>
-      </c>
-      <c r="U46" s="4">
-        <v>810200</v>
+        <v>3220100</v>
+      </c>
+      <c r="U46">
+        <v>2894500</v>
       </c>
       <c r="V46">
-        <v>440400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3141900</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="3"/>
+        <v>4600</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="4"/>
+        <v>4200</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="5"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>3974400</v>
       </c>
@@ -3383,22 +4310,42 @@
         <v>46</v>
       </c>
       <c r="R47" s="2">
-        <v>310000</v>
+        <v>3322200</v>
       </c>
       <c r="S47">
-        <v>391300</v>
+        <v>3358200</v>
       </c>
       <c r="T47">
-        <v>532000</v>
-      </c>
-      <c r="U47" s="4">
-        <v>576100</v>
+        <v>3224700</v>
+      </c>
+      <c r="U47">
+        <v>2898700</v>
       </c>
       <c r="V47">
-        <v>302700</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3149300</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="1"/>
+        <v>11300</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="3"/>
+        <v>3200</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="4"/>
+        <v>2900</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="5"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>4060800</v>
       </c>
@@ -3445,22 +4392,42 @@
         <v>47</v>
       </c>
       <c r="R48" s="2">
-        <v>251100</v>
+        <v>3333500</v>
       </c>
       <c r="S48">
-        <v>282700</v>
+        <v>3358500</v>
       </c>
       <c r="T48">
-        <v>423200</v>
-      </c>
-      <c r="U48" s="4">
-        <v>445500</v>
+        <v>3227900</v>
+      </c>
+      <c r="U48">
+        <v>2901600</v>
       </c>
       <c r="V48">
-        <v>254200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3157800</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="1"/>
+        <v>14900</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="4"/>
+        <v>4700</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="5"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>4147200</v>
       </c>
@@ -3507,22 +4474,42 @@
         <v>48</v>
       </c>
       <c r="R49" s="2">
-        <v>185500</v>
+        <v>3348400</v>
       </c>
       <c r="S49">
-        <v>230100</v>
+        <v>3358900</v>
       </c>
       <c r="T49">
-        <v>299600</v>
-      </c>
-      <c r="U49" s="4">
-        <v>362000</v>
+        <v>3229800</v>
+      </c>
+      <c r="U49">
+        <v>2906300</v>
       </c>
       <c r="V49">
-        <v>208200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3161700</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="1"/>
+        <v>10300</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="4"/>
+        <v>6100</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="5"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>4233600</v>
       </c>
@@ -3569,22 +4556,42 @@
         <v>49</v>
       </c>
       <c r="R50" s="2">
-        <v>159300</v>
+        <v>3358700</v>
       </c>
       <c r="S50">
-        <v>172400</v>
+        <v>3359100</v>
       </c>
       <c r="T50">
-        <v>231900</v>
-      </c>
-      <c r="U50" s="4">
-        <v>274900</v>
+        <v>3230400</v>
+      </c>
+      <c r="U50">
+        <v>2912400</v>
       </c>
       <c r="V50">
-        <v>151300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3169100</v>
+      </c>
+      <c r="X50">
+        <f>R51-R50</f>
+        <v>3200</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="4"/>
+        <v>5100</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="5"/>
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>4320000</v>
       </c>
@@ -3631,22 +4638,42 @@
         <v>50</v>
       </c>
       <c r="R51" s="2">
-        <v>135700</v>
+        <v>3361900</v>
       </c>
       <c r="S51">
-        <v>123700</v>
+        <v>3359400</v>
       </c>
       <c r="T51">
-        <v>183400</v>
-      </c>
-      <c r="U51" s="4">
-        <v>196800</v>
+        <v>3231600</v>
+      </c>
+      <c r="U51">
+        <v>2917500</v>
       </c>
       <c r="V51">
-        <v>124300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3180200</v>
+      </c>
+      <c r="X51">
+        <f t="shared" ref="X51:X63" si="6">R52-R51</f>
+        <v>5800</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" ref="Y51:Y63" si="7">S52-S51</f>
+        <v>200</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" ref="Z51:Z63" si="8">T52-T51</f>
+        <v>2000</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" ref="AA51:AA63" si="9">U52-U51</f>
+        <v>5600</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" ref="AB51:AB63" si="10">V52-V51</f>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>4406400</v>
       </c>
@@ -3693,22 +4720,42 @@
         <v>51</v>
       </c>
       <c r="R52" s="2">
-        <v>119200</v>
+        <v>3367700</v>
       </c>
       <c r="S52">
-        <v>96600</v>
+        <v>3359600</v>
       </c>
       <c r="T52">
-        <v>145700</v>
-      </c>
-      <c r="U52" s="4">
-        <v>162100</v>
+        <v>3233600</v>
+      </c>
+      <c r="U52">
+        <v>2923100</v>
       </c>
       <c r="V52">
-        <v>124300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3190800</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="6"/>
+        <v>4600</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="9"/>
+        <v>10500</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="10"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>4492800</v>
       </c>
@@ -3755,22 +4802,42 @@
         <v>52</v>
       </c>
       <c r="R53" s="2">
-        <v>106100</v>
+        <v>3372300</v>
       </c>
       <c r="S53">
-        <v>68700</v>
+        <v>3359800</v>
       </c>
       <c r="T53">
-        <v>115400</v>
-      </c>
-      <c r="U53" s="4">
-        <v>142400</v>
+        <v>3234600</v>
+      </c>
+      <c r="U53">
+        <v>2933600</v>
       </c>
       <c r="V53">
-        <v>114400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3195200</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="9"/>
+        <v>9800</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="10"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>4579200</v>
       </c>
@@ -3817,22 +4884,42 @@
         <v>53</v>
       </c>
       <c r="R54" s="2">
-        <v>99700</v>
+        <v>3373000</v>
       </c>
       <c r="S54">
-        <v>47300</v>
+        <v>3359900</v>
       </c>
       <c r="T54">
-        <v>94300</v>
-      </c>
-      <c r="U54" s="4">
-        <v>116800</v>
+        <v>3235200</v>
+      </c>
+      <c r="U54">
+        <v>2943400</v>
       </c>
       <c r="V54">
-        <v>101700</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3198700</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="9"/>
+        <v>9900</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="10"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>4665600</v>
       </c>
@@ -3879,22 +4966,42 @@
         <v>54</v>
       </c>
       <c r="R55" s="2">
-        <v>93700</v>
+        <v>3373300</v>
       </c>
       <c r="S55">
-        <v>34100</v>
+        <v>3360000</v>
       </c>
       <c r="T55">
-        <v>78400</v>
-      </c>
-      <c r="U55" s="4">
-        <v>102900</v>
+        <v>3235400</v>
+      </c>
+      <c r="U55">
+        <v>2953300</v>
       </c>
       <c r="V55">
-        <v>91600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3202300</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="9"/>
+        <v>8300</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="10"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>4752000</v>
       </c>
@@ -3941,22 +5048,42 @@
         <v>55</v>
       </c>
       <c r="R56" s="2">
-        <v>88800</v>
+        <v>3374300</v>
       </c>
       <c r="S56">
-        <v>25900</v>
+        <v>3360100</v>
       </c>
       <c r="T56">
-        <v>64800</v>
-      </c>
-      <c r="U56" s="4">
-        <v>101400</v>
+        <v>3235500</v>
+      </c>
+      <c r="U56">
+        <v>2961600</v>
       </c>
       <c r="V56">
-        <v>91100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3205400</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="6"/>
+        <v>1100</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="9"/>
+        <v>5700</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>4838400</v>
       </c>
@@ -4003,22 +5130,42 @@
         <v>56</v>
       </c>
       <c r="R57" s="2">
-        <v>85800</v>
+        <v>3375400</v>
       </c>
       <c r="S57">
-        <v>18500</v>
+        <v>3360200</v>
       </c>
       <c r="T57">
-        <v>55500</v>
-      </c>
-      <c r="U57" s="4">
-        <v>95900</v>
+        <v>3235600</v>
+      </c>
+      <c r="U57">
+        <v>2967300</v>
       </c>
       <c r="V57">
-        <v>88400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3206400</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="9"/>
+        <v>7300</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="10"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>4924800</v>
       </c>
@@ -4065,22 +5212,42 @@
         <v>57</v>
       </c>
       <c r="R58" s="2">
-        <v>82500</v>
+        <v>3375700</v>
       </c>
       <c r="S58">
-        <v>13400</v>
+        <v>3360300</v>
       </c>
       <c r="T58">
-        <v>42300</v>
-      </c>
-      <c r="U58" s="4">
-        <v>94500</v>
+        <v>3235900</v>
+      </c>
+      <c r="U58">
+        <v>2974600</v>
       </c>
       <c r="V58">
-        <v>80200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3207100</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="9"/>
+        <v>5800</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="10"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>5011200</v>
       </c>
@@ -4127,22 +5294,42 @@
         <v>58</v>
       </c>
       <c r="R59" s="2">
-        <v>75800</v>
+        <v>3376200</v>
       </c>
       <c r="S59">
-        <v>11700</v>
+        <v>3360400</v>
       </c>
       <c r="T59">
-        <v>31100</v>
-      </c>
-      <c r="U59" s="4">
-        <v>96700</v>
+        <v>3236000</v>
+      </c>
+      <c r="U59">
+        <v>2980400</v>
       </c>
       <c r="V59">
-        <v>73600</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3207900</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="9"/>
+        <v>3900</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>5097600</v>
       </c>
@@ -4189,22 +5376,42 @@
         <v>59</v>
       </c>
       <c r="R60" s="2">
-        <v>68100</v>
+        <v>3376500</v>
       </c>
       <c r="S60">
-        <v>9600</v>
+        <v>3360500</v>
       </c>
       <c r="T60">
-        <v>23700</v>
-      </c>
-      <c r="U60" s="4">
-        <v>97900</v>
+        <v>3236100</v>
+      </c>
+      <c r="U60">
+        <v>2984300</v>
       </c>
       <c r="V60">
-        <v>71200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3208500</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>5184000</v>
       </c>
@@ -4251,22 +5458,42 @@
         <v>60</v>
       </c>
       <c r="R61" s="2">
-        <v>60800</v>
+        <v>3376800</v>
       </c>
       <c r="S61">
-        <v>6400</v>
+        <v>3360600</v>
       </c>
       <c r="T61">
-        <v>18900</v>
-      </c>
-      <c r="U61" s="4">
-        <v>95800</v>
+        <v>3236200</v>
+      </c>
+      <c r="U61">
+        <v>2986800</v>
       </c>
       <c r="V61">
-        <v>68600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3208600</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="9"/>
+        <v>3300</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>5270400</v>
       </c>
@@ -4313,22 +5540,42 @@
         <v>61</v>
       </c>
       <c r="R62" s="2">
-        <v>56500</v>
+        <v>3376900</v>
       </c>
       <c r="S62">
-        <v>3800</v>
+        <v>3360700</v>
       </c>
       <c r="T62">
-        <v>14600</v>
-      </c>
-      <c r="U62" s="4">
-        <v>94100</v>
+        <v>3236400</v>
+      </c>
+      <c r="U62">
+        <v>2990100</v>
       </c>
       <c r="V62">
-        <v>61200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3208700</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="9"/>
+        <v>1400</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="10"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>5356800</v>
       </c>
@@ -4375,22 +5622,42 @@
         <v>62</v>
       </c>
       <c r="R63" s="2">
-        <v>45900</v>
+        <v>3377000</v>
       </c>
       <c r="S63">
-        <v>3600</v>
+        <v>3360900</v>
       </c>
       <c r="T63">
-        <v>11500</v>
-      </c>
-      <c r="U63" s="4">
-        <v>92200</v>
+        <v>3236800</v>
+      </c>
+      <c r="U63">
+        <v>2991500</v>
       </c>
       <c r="V63">
-        <v>54100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3209200</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>5443200</v>
       </c>
@@ -4437,22 +5704,42 @@
         <v>63</v>
       </c>
       <c r="R64" s="2">
-        <v>32200</v>
+        <v>3377100</v>
       </c>
       <c r="S64">
-        <v>2800</v>
+        <v>3361000</v>
       </c>
       <c r="T64">
-        <v>9600</v>
-      </c>
-      <c r="U64" s="4">
-        <v>87300</v>
+        <v>3237100</v>
+      </c>
+      <c r="U64">
+        <v>2991800</v>
       </c>
       <c r="V64">
-        <v>50500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3209300</v>
+      </c>
+      <c r="X64">
+        <f t="shared" ref="X64:X88" si="11">R65-R64</f>
+        <v>200</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" ref="Y64:Y88" si="12">S65-S64</f>
+        <v>100</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" ref="Z64:Z88" si="13">T65-T64</f>
+        <v>100</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" ref="AA64:AA88" si="14">U65-U64</f>
+        <v>100</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" ref="AB64:AB88" si="15">V65-V64</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>5529600</v>
       </c>
@@ -4499,22 +5786,42 @@
         <v>64</v>
       </c>
       <c r="R65" s="2">
-        <v>22600</v>
+        <v>3377300</v>
       </c>
       <c r="S65">
-        <v>2400</v>
+        <v>3361100</v>
       </c>
       <c r="T65">
-        <v>8800</v>
-      </c>
-      <c r="U65" s="4">
-        <v>81000</v>
+        <v>3237200</v>
+      </c>
+      <c r="U65">
+        <v>2991900</v>
       </c>
       <c r="V65">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3209800</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="13"/>
+        <v>400</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>5616000</v>
       </c>
@@ -4561,22 +5868,42 @@
         <v>65</v>
       </c>
       <c r="R66" s="2">
-        <v>19100</v>
+        <v>3377500</v>
       </c>
       <c r="S66">
-        <v>2100</v>
+        <v>3361200</v>
       </c>
       <c r="T66">
-        <v>7500</v>
-      </c>
-      <c r="U66" s="4">
-        <v>76100</v>
+        <v>3237600</v>
+      </c>
+      <c r="U66">
+        <v>2992100</v>
       </c>
       <c r="V66">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3210000</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>5702400</v>
       </c>
@@ -4623,22 +5950,42 @@
         <v>66</v>
       </c>
       <c r="R67" s="2">
-        <v>13400</v>
+        <v>3377600</v>
       </c>
       <c r="S67">
-        <v>2000</v>
+        <v>3361400</v>
       </c>
       <c r="T67">
-        <v>5400</v>
-      </c>
-      <c r="U67" s="4">
-        <v>70800</v>
+        <v>3237900</v>
+      </c>
+      <c r="U67">
+        <v>2992300</v>
       </c>
       <c r="V67">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3210200</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>5788800</v>
       </c>
@@ -4685,22 +6032,42 @@
         <v>67</v>
       </c>
       <c r="R68" s="2">
-        <v>8500</v>
+        <v>3377700</v>
       </c>
       <c r="S68">
-        <v>1900</v>
+        <v>3361500</v>
       </c>
       <c r="T68">
-        <v>4500</v>
-      </c>
-      <c r="U68" s="4">
-        <v>60600</v>
+        <v>3238000</v>
+      </c>
+      <c r="U68">
+        <v>2992500</v>
       </c>
       <c r="V68">
-        <v>17900</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3210300</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>5875200</v>
       </c>
@@ -4747,22 +6114,42 @@
         <v>68</v>
       </c>
       <c r="R69" s="2">
-        <v>7500</v>
+        <v>3377800</v>
       </c>
       <c r="S69">
-        <v>1900</v>
+        <v>3361600</v>
       </c>
       <c r="T69">
-        <v>3500</v>
-      </c>
-      <c r="U69" s="4">
-        <v>51500</v>
+        <v>3238100</v>
+      </c>
+      <c r="U69">
+        <v>2993000</v>
       </c>
       <c r="V69">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3210400</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>5961600</v>
       </c>
@@ -4809,22 +6196,42 @@
         <v>69</v>
       </c>
       <c r="R70" s="2">
-        <v>6600</v>
+        <v>3377900</v>
       </c>
       <c r="S70">
-        <v>1900</v>
+        <v>3361800</v>
       </c>
       <c r="T70">
-        <v>3500</v>
-      </c>
-      <c r="U70" s="4">
-        <v>42500</v>
+        <v>3238200</v>
+      </c>
+      <c r="U70">
+        <v>2993200</v>
       </c>
       <c r="V70">
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3210600</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="13"/>
+        <v>600</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>6048000</v>
       </c>
@@ -4871,22 +6278,42 @@
         <v>70</v>
       </c>
       <c r="R71" s="2">
-        <v>4700</v>
+        <v>3378100</v>
       </c>
       <c r="S71">
-        <v>1900</v>
+        <v>3361900</v>
       </c>
       <c r="T71">
-        <v>3900</v>
-      </c>
-      <c r="U71" s="4">
-        <v>34500</v>
+        <v>3238800</v>
+      </c>
+      <c r="U71">
+        <v>2993500</v>
       </c>
       <c r="V71">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3210700</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>6134400</v>
       </c>
@@ -4933,22 +6360,42 @@
         <v>71</v>
       </c>
       <c r="R72" s="2">
-        <v>3200</v>
+        <v>3378200</v>
       </c>
       <c r="S72">
-        <v>1900</v>
+        <v>3362000</v>
       </c>
       <c r="T72">
-        <v>3800</v>
-      </c>
-      <c r="U72" s="4">
-        <v>29200</v>
+        <v>3238900</v>
+      </c>
+      <c r="U72">
+        <v>2993900</v>
       </c>
       <c r="V72">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3210800</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>6220800</v>
       </c>
@@ -4995,22 +6442,42 @@
         <v>72</v>
       </c>
       <c r="R73" s="2">
-        <v>3200</v>
+        <v>3378300</v>
       </c>
       <c r="S73">
-        <v>1900</v>
+        <v>3362100</v>
       </c>
       <c r="T73">
-        <v>3600</v>
-      </c>
-      <c r="U73" s="4">
-        <v>22600</v>
+        <v>3239000</v>
+      </c>
+      <c r="U73">
+        <v>2994200</v>
       </c>
       <c r="V73">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3210900</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>6307200</v>
       </c>
@@ -5057,22 +6524,42 @@
         <v>73</v>
       </c>
       <c r="R74" s="2">
-        <v>2800</v>
+        <v>3378500</v>
       </c>
       <c r="S74">
-        <v>2000</v>
+        <v>3362300</v>
       </c>
       <c r="T74">
-        <v>3600</v>
-      </c>
-      <c r="U74" s="4">
-        <v>17100</v>
+        <v>3239100</v>
+      </c>
+      <c r="U74">
+        <v>2994400</v>
       </c>
       <c r="V74">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3211000</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="14"/>
+        <v>600</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>6393600</v>
       </c>
@@ -5119,22 +6606,42 @@
         <v>74</v>
       </c>
       <c r="R75" s="2">
-        <v>2600</v>
+        <v>3378600</v>
       </c>
       <c r="S75">
-        <v>2000</v>
+        <v>3362400</v>
       </c>
       <c r="T75">
-        <v>3600</v>
-      </c>
-      <c r="U75" s="4">
-        <v>13700</v>
+        <v>3239300</v>
+      </c>
+      <c r="U75">
+        <v>2995000</v>
       </c>
       <c r="V75">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3211200</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>6480000</v>
       </c>
@@ -5181,22 +6688,42 @@
         <v>75</v>
       </c>
       <c r="R76" s="2">
-        <v>2400</v>
+        <v>3378700</v>
       </c>
       <c r="S76">
-        <v>2100</v>
+        <v>3362600</v>
       </c>
       <c r="T76">
-        <v>3600</v>
-      </c>
-      <c r="U76" s="4">
-        <v>11000</v>
+        <v>3239400</v>
+      </c>
+      <c r="U76">
+        <v>2995300</v>
       </c>
       <c r="V76">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3211300</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>6566400</v>
       </c>
@@ -5243,22 +6770,42 @@
         <v>76</v>
       </c>
       <c r="R77" s="2">
-        <v>2400</v>
+        <v>3378800</v>
       </c>
       <c r="S77">
-        <v>2100</v>
+        <v>3362700</v>
       </c>
       <c r="T77">
-        <v>3400</v>
-      </c>
-      <c r="U77" s="4">
-        <v>7300</v>
+        <v>3239500</v>
+      </c>
+      <c r="U77">
+        <v>2995400</v>
       </c>
       <c r="V77">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3211400</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>6652800</v>
       </c>
@@ -5305,22 +6852,42 @@
         <v>77</v>
       </c>
       <c r="R78" s="2">
-        <v>2400</v>
+        <v>3378900</v>
       </c>
       <c r="S78">
-        <v>2000</v>
+        <v>3362800</v>
       </c>
       <c r="T78">
-        <v>3100</v>
-      </c>
-      <c r="U78" s="4">
-        <v>6100</v>
+        <v>3239600</v>
+      </c>
+      <c r="U78">
+        <v>2995500</v>
       </c>
       <c r="V78">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3211500</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>6739200</v>
       </c>
@@ -5367,22 +6934,42 @@
         <v>78</v>
       </c>
       <c r="R79" s="2">
-        <v>2300</v>
+        <v>3379000</v>
       </c>
       <c r="S79">
-        <v>2000</v>
+        <v>3362900</v>
       </c>
       <c r="T79">
-        <v>3000</v>
-      </c>
-      <c r="U79" s="4">
-        <v>6000</v>
+        <v>3239800</v>
+      </c>
+      <c r="U79">
+        <v>2995800</v>
       </c>
       <c r="V79">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3211600</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>6825600</v>
       </c>
@@ -5429,22 +7016,42 @@
         <v>79</v>
       </c>
       <c r="R80" s="2">
-        <v>2100</v>
+        <v>3379200</v>
       </c>
       <c r="S80">
-        <v>2000</v>
+        <v>3363000</v>
       </c>
       <c r="T80">
-        <v>3000</v>
-      </c>
-      <c r="U80" s="4">
-        <v>5500</v>
+        <v>3239900</v>
+      </c>
+      <c r="U80">
+        <v>2996000</v>
       </c>
       <c r="V80">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3211800</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AB80">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>6912000</v>
       </c>
@@ -5491,22 +7098,42 @@
         <v>80</v>
       </c>
       <c r="R81" s="2">
-        <v>2000</v>
+        <v>3379300</v>
       </c>
       <c r="S81">
-        <v>2000</v>
+        <v>3363100</v>
       </c>
       <c r="T81">
-        <v>2700</v>
-      </c>
-      <c r="U81" s="4">
-        <v>5000</v>
+        <v>3240100</v>
+      </c>
+      <c r="U81">
+        <v>2996100</v>
       </c>
       <c r="V81">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3212000</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>6998400</v>
       </c>
@@ -5553,22 +7180,42 @@
         <v>81</v>
       </c>
       <c r="R82" s="2">
-        <v>2000</v>
+        <v>3379400</v>
       </c>
       <c r="S82">
-        <v>2000</v>
+        <v>3363300</v>
       </c>
       <c r="T82">
-        <v>2400</v>
-      </c>
-      <c r="U82" s="4">
-        <v>4400</v>
+        <v>3240200</v>
+      </c>
+      <c r="U82">
+        <v>2996200</v>
       </c>
       <c r="V82">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3212200</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB82">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>7084800</v>
       </c>
@@ -5615,22 +7262,42 @@
         <v>82</v>
       </c>
       <c r="R83" s="2">
-        <v>1900</v>
+        <v>3379500</v>
       </c>
       <c r="S83">
-        <v>2000</v>
+        <v>3363400</v>
       </c>
       <c r="T83">
-        <v>2400</v>
-      </c>
-      <c r="U83" s="4">
-        <v>4400</v>
+        <v>3240300</v>
+      </c>
+      <c r="U83">
+        <v>2996400</v>
       </c>
       <c r="V83">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3212300</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB83">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>7171200</v>
       </c>
@@ -5677,22 +7344,42 @@
         <v>83</v>
       </c>
       <c r="R84" s="2">
-        <v>1900</v>
+        <v>3379600</v>
       </c>
       <c r="S84">
-        <v>2100</v>
+        <v>3363600</v>
       </c>
       <c r="T84">
-        <v>2400</v>
-      </c>
-      <c r="U84" s="4">
-        <v>3900</v>
+        <v>3240400</v>
+      </c>
+      <c r="U84">
+        <v>2996600</v>
       </c>
       <c r="V84">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3212500</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>7257600</v>
       </c>
@@ -5739,22 +7426,42 @@
         <v>84</v>
       </c>
       <c r="R85" s="2">
-        <v>1900</v>
+        <v>3379700</v>
       </c>
       <c r="S85">
-        <v>2300</v>
+        <v>3363900</v>
       </c>
       <c r="T85">
-        <v>2500</v>
-      </c>
-      <c r="U85" s="4">
-        <v>3700</v>
+        <v>3240600</v>
+      </c>
+      <c r="U85">
+        <v>2996800</v>
       </c>
       <c r="V85">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3212700</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="AB85">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>7344000</v>
       </c>
@@ -5801,22 +7508,42 @@
         <v>85</v>
       </c>
       <c r="R86" s="2">
-        <v>1800</v>
+        <v>3379800</v>
       </c>
       <c r="S86">
-        <v>2400</v>
+        <v>3364100</v>
       </c>
       <c r="T86">
-        <v>2100</v>
-      </c>
-      <c r="U86" s="4">
-        <v>3800</v>
+        <v>3240800</v>
+      </c>
+      <c r="U86">
+        <v>2997200</v>
       </c>
       <c r="V86">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3212800</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AB86">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>7430400</v>
       </c>
@@ -5863,22 +7590,42 @@
         <v>86</v>
       </c>
       <c r="R87" s="2">
-        <v>1800</v>
+        <v>3379900</v>
       </c>
       <c r="S87">
-        <v>2400</v>
+        <v>3364200</v>
       </c>
       <c r="T87">
-        <v>2200</v>
-      </c>
-      <c r="U87" s="4">
-        <v>3500</v>
+        <v>3241000</v>
+      </c>
+      <c r="U87">
+        <v>2997300</v>
       </c>
       <c r="V87">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3212900</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>7516800</v>
       </c>
@@ -5925,22 +7672,42 @@
         <v>87</v>
       </c>
       <c r="R88" s="2">
-        <v>1800</v>
+        <v>3380000</v>
       </c>
       <c r="S88">
-        <v>2400</v>
+        <v>3364300</v>
       </c>
       <c r="T88">
-        <v>2300</v>
-      </c>
-      <c r="U88" s="4">
-        <v>3500</v>
+        <v>3241200</v>
+      </c>
+      <c r="U88">
+        <v>2997500</v>
       </c>
       <c r="V88">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3213300</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>7603200</v>
       </c>
@@ -5987,22 +7754,42 @@
         <v>88</v>
       </c>
       <c r="R89" s="2">
-        <v>1700</v>
+        <v>3380100</v>
       </c>
       <c r="S89">
-        <v>2300</v>
+        <v>3364400</v>
       </c>
       <c r="T89">
-        <v>2300</v>
-      </c>
-      <c r="U89" s="4">
-        <v>3500</v>
+        <v>3241300</v>
+      </c>
+      <c r="U89">
+        <v>2997700</v>
       </c>
       <c r="V89">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3213400</v>
+      </c>
+      <c r="X89">
+        <f t="shared" ref="X89:X101" si="16">R90-R89</f>
+        <v>100</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" ref="Y89:Y101" si="17">S90-S89</f>
+        <v>200</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" ref="Z89:Z101" si="18">T90-T89</f>
+        <v>100</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" ref="AA89:AA101" si="19">U90-U89</f>
+        <v>500</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" ref="AB89:AB101" si="20">V90-V89</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>7689600</v>
       </c>
@@ -6049,22 +7836,42 @@
         <v>89</v>
       </c>
       <c r="R90" s="2">
-        <v>1700</v>
+        <v>3380200</v>
       </c>
       <c r="S90">
-        <v>2400</v>
+        <v>3364600</v>
       </c>
       <c r="T90">
-        <v>2200</v>
-      </c>
-      <c r="U90" s="4">
-        <v>3400</v>
+        <v>3241400</v>
+      </c>
+      <c r="U90">
+        <v>2998200</v>
       </c>
       <c r="V90">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3213500</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="AB90">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>7776000</v>
       </c>
@@ -6111,22 +7918,42 @@
         <v>90</v>
       </c>
       <c r="R91" s="2">
-        <v>1700</v>
+        <v>3380300</v>
       </c>
       <c r="S91">
-        <v>2300</v>
+        <v>3364700</v>
       </c>
       <c r="T91">
-        <v>2300</v>
-      </c>
-      <c r="U91" s="4">
-        <v>3400</v>
+        <v>3241600</v>
+      </c>
+      <c r="U91">
+        <v>2998500</v>
       </c>
       <c r="V91">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3213600</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="AB91">
+        <f t="shared" si="20"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>7862400</v>
       </c>
@@ -6173,22 +8000,42 @@
         <v>91</v>
       </c>
       <c r="R92" s="2">
-        <v>1700</v>
+        <v>3380400</v>
       </c>
       <c r="S92">
-        <v>2300</v>
+        <v>3364900</v>
       </c>
       <c r="T92">
-        <v>2400</v>
-      </c>
-      <c r="U92" s="4">
-        <v>3600</v>
+        <v>3241800</v>
+      </c>
+      <c r="U92">
+        <v>2998800</v>
       </c>
       <c r="V92">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3213800</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>7948800</v>
       </c>
@@ -6235,22 +8082,42 @@
         <v>92</v>
       </c>
       <c r="R93" s="2">
-        <v>1700</v>
+        <v>3380500</v>
       </c>
       <c r="S93">
-        <v>2300</v>
+        <v>3365000</v>
       </c>
       <c r="T93">
-        <v>2500</v>
-      </c>
-      <c r="U93" s="4">
-        <v>3600</v>
+        <v>3241900</v>
+      </c>
+      <c r="U93">
+        <v>2998900</v>
       </c>
       <c r="V93">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3213900</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="17"/>
+        <v>400</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="AB93">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>8035200</v>
       </c>
@@ -6297,22 +8164,42 @@
         <v>93</v>
       </c>
       <c r="R94" s="2">
-        <v>1800</v>
+        <v>3380700</v>
       </c>
       <c r="S94">
-        <v>2600</v>
+        <v>3365400</v>
       </c>
       <c r="T94">
-        <v>2400</v>
-      </c>
-      <c r="U94" s="4">
-        <v>3400</v>
+        <v>3242000</v>
+      </c>
+      <c r="U94">
+        <v>2999000</v>
       </c>
       <c r="V94">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3214000</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="16"/>
+        <v>400</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="AB94">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>8121600</v>
       </c>
@@ -6359,22 +8246,42 @@
         <v>94</v>
       </c>
       <c r="R95" s="2">
-        <v>2100</v>
+        <v>3381100</v>
       </c>
       <c r="S95">
-        <v>2600</v>
+        <v>3365500</v>
       </c>
       <c r="T95">
-        <v>2400</v>
-      </c>
-      <c r="U95" s="4">
-        <v>3200</v>
+        <v>3242100</v>
+      </c>
+      <c r="U95">
+        <v>2999100</v>
       </c>
       <c r="V95">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3214100</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="20"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>8208000</v>
       </c>
@@ -6421,22 +8328,42 @@
         <v>95</v>
       </c>
       <c r="R96" s="2">
-        <v>2100</v>
+        <v>3381200</v>
       </c>
       <c r="S96">
-        <v>2600</v>
+        <v>3365600</v>
       </c>
       <c r="T96">
-        <v>2400</v>
-      </c>
-      <c r="U96" s="4">
-        <v>3200</v>
+        <v>3242300</v>
+      </c>
+      <c r="U96">
+        <v>2999200</v>
       </c>
       <c r="V96">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3214300</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>8294400</v>
       </c>
@@ -6483,22 +8410,42 @@
         <v>96</v>
       </c>
       <c r="R97" s="2">
-        <v>2100</v>
+        <v>3381300</v>
       </c>
       <c r="S97">
-        <v>2600</v>
+        <v>3365800</v>
       </c>
       <c r="T97">
-        <v>2500</v>
-      </c>
-      <c r="U97" s="4">
-        <v>3200</v>
+        <v>3242400</v>
+      </c>
+      <c r="U97">
+        <v>2999300</v>
       </c>
       <c r="V97">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3214400</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="17"/>
+        <v>400</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="19"/>
+        <v>200</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="20"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>8380800</v>
       </c>
@@ -6545,22 +8492,42 @@
         <v>97</v>
       </c>
       <c r="R98" s="2">
-        <v>2200</v>
+        <v>3381500</v>
       </c>
       <c r="S98">
-        <v>2900</v>
+        <v>3366200</v>
       </c>
       <c r="T98">
-        <v>2500</v>
-      </c>
-      <c r="U98" s="4">
-        <v>3200</v>
+        <v>3242500</v>
+      </c>
+      <c r="U98">
+        <v>2999500</v>
       </c>
       <c r="V98">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3214600</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="16"/>
+        <v>400</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>8467200</v>
       </c>
@@ -6607,22 +8574,42 @@
         <v>98</v>
       </c>
       <c r="R99" s="2">
-        <v>2500</v>
+        <v>3381900</v>
       </c>
       <c r="S99">
-        <v>2800</v>
+        <v>3366300</v>
       </c>
       <c r="T99">
-        <v>2500</v>
-      </c>
-      <c r="U99" s="4">
-        <v>3300</v>
+        <v>3242600</v>
+      </c>
+      <c r="U99">
+        <v>2999800</v>
       </c>
       <c r="V99">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3214700</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="16"/>
+        <v>300</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="19"/>
+        <v>200</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>8553600</v>
       </c>
@@ -6669,22 +8656,42 @@
         <v>99</v>
       </c>
       <c r="R100" s="2">
-        <v>2700</v>
+        <v>3382200</v>
       </c>
       <c r="S100">
-        <v>2600</v>
+        <v>3366400</v>
       </c>
       <c r="T100">
-        <v>2300</v>
-      </c>
-      <c r="U100" s="4">
-        <v>3300</v>
+        <v>3242700</v>
+      </c>
+      <c r="U100">
+        <v>3000000</v>
       </c>
       <c r="V100">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3214800</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>8640000</v>
       </c>
@@ -6731,22 +8738,42 @@
         <v>100</v>
       </c>
       <c r="R101" s="2">
-        <v>2700</v>
+        <v>3382300</v>
       </c>
       <c r="S101">
-        <v>2600</v>
+        <v>3366500</v>
       </c>
       <c r="T101">
-        <v>2300</v>
-      </c>
-      <c r="U101" s="4">
-        <v>3000</v>
+        <v>3242800</v>
+      </c>
+      <c r="U101">
+        <v>3000100</v>
       </c>
       <c r="V101">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3214900</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="19"/>
+        <v>200</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>8726400</v>
       </c>
@@ -6793,22 +8820,23 @@
         <v>101</v>
       </c>
       <c r="R102" s="2">
-        <v>2600</v>
+        <v>3382400</v>
       </c>
       <c r="S102">
-        <v>2700</v>
+        <v>3366700</v>
       </c>
       <c r="T102">
-        <v>2200</v>
-      </c>
-      <c r="U102" s="4">
-        <v>3100</v>
+        <v>3242900</v>
+      </c>
+      <c r="U102">
+        <v>3000300</v>
       </c>
       <c r="V102">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3215000</v>
+      </c>
+      <c r="X102"/>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>8812800</v>
       </c>
@@ -6855,22 +8883,23 @@
         <v>102</v>
       </c>
       <c r="R103" s="2">
-        <v>2700</v>
+        <v>3382600</v>
       </c>
       <c r="S103">
-        <v>2700</v>
+        <v>3366800</v>
       </c>
       <c r="T103">
-        <v>2100</v>
-      </c>
-      <c r="U103" s="4">
-        <v>3100</v>
+        <v>3243000</v>
+      </c>
+      <c r="U103">
+        <v>3000500</v>
       </c>
       <c r="V103">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3215100</v>
+      </c>
+      <c r="X103"/>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>8899200</v>
       </c>
@@ -6917,22 +8946,23 @@
         <v>103</v>
       </c>
       <c r="R104" s="2">
-        <v>2700</v>
+        <v>3382700</v>
       </c>
       <c r="S104">
-        <v>2700</v>
+        <v>3366900</v>
       </c>
       <c r="T104">
-        <v>2100</v>
-      </c>
-      <c r="U104" s="4">
-        <v>3000</v>
+        <v>3243200</v>
+      </c>
+      <c r="U104">
+        <v>3000600</v>
       </c>
       <c r="V104">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3215200</v>
+      </c>
+      <c r="X104"/>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>8985600</v>
       </c>
@@ -6979,22 +9009,23 @@
         <v>104</v>
       </c>
       <c r="R105" s="2">
-        <v>2800</v>
+        <v>3382900</v>
       </c>
       <c r="S105">
-        <v>2600</v>
+        <v>3367000</v>
       </c>
       <c r="T105">
-        <v>2100</v>
-      </c>
-      <c r="U105" s="4">
-        <v>2700</v>
+        <v>3243300</v>
+      </c>
+      <c r="U105">
+        <v>3000800</v>
       </c>
       <c r="V105">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3215300</v>
+      </c>
+      <c r="X105"/>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>9072000</v>
       </c>
@@ -7041,22 +9072,23 @@
         <v>105</v>
       </c>
       <c r="R106" s="2">
-        <v>2800</v>
+        <v>3383000</v>
       </c>
       <c r="S106">
-        <v>2600</v>
+        <v>3367100</v>
       </c>
       <c r="T106">
-        <v>2000</v>
-      </c>
-      <c r="U106" s="4">
-        <v>2600</v>
+        <v>3243400</v>
+      </c>
+      <c r="U106">
+        <v>3001000</v>
       </c>
       <c r="V106">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3215500</v>
+      </c>
+      <c r="X106"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>9158400</v>
       </c>
@@ -7103,22 +9135,23 @@
         <v>106</v>
       </c>
       <c r="R107" s="2">
-        <v>2800</v>
+        <v>3383100</v>
       </c>
       <c r="S107">
-        <v>2500</v>
+        <v>3367200</v>
       </c>
       <c r="T107">
-        <v>2000</v>
-      </c>
-      <c r="U107" s="4">
-        <v>2600</v>
+        <v>3243500</v>
+      </c>
+      <c r="U107">
+        <v>3001300</v>
       </c>
       <c r="V107">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3215700</v>
+      </c>
+      <c r="X107"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>9244800</v>
       </c>
@@ -7165,22 +9198,23 @@
         <v>107</v>
       </c>
       <c r="R108" s="2">
-        <v>2800</v>
+        <v>3383200</v>
       </c>
       <c r="S108">
-        <v>2400</v>
+        <v>3367300</v>
       </c>
       <c r="T108">
-        <v>2000</v>
-      </c>
-      <c r="U108" s="4">
-        <v>2700</v>
+        <v>3243700</v>
+      </c>
+      <c r="U108">
+        <v>3001500</v>
       </c>
       <c r="V108">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3215800</v>
+      </c>
+      <c r="X108"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>9331200</v>
       </c>
@@ -7227,22 +9261,23 @@
         <v>108</v>
       </c>
       <c r="R109" s="2">
-        <v>2700</v>
+        <v>3383300</v>
       </c>
       <c r="S109">
-        <v>2100</v>
+        <v>3367400</v>
       </c>
       <c r="T109">
-        <v>2200</v>
-      </c>
-      <c r="U109" s="4">
-        <v>2800</v>
+        <v>3244000</v>
+      </c>
+      <c r="U109">
+        <v>3001700</v>
       </c>
       <c r="V109">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3215900</v>
+      </c>
+      <c r="X109"/>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>9417600</v>
       </c>
@@ -7289,22 +9324,23 @@
         <v>109</v>
       </c>
       <c r="R110" s="2">
-        <v>2400</v>
+        <v>3383400</v>
       </c>
       <c r="S110">
-        <v>2100</v>
+        <v>3367500</v>
       </c>
       <c r="T110">
-        <v>2200</v>
-      </c>
-      <c r="U110" s="4">
-        <v>2800</v>
+        <v>3244100</v>
+      </c>
+      <c r="U110">
+        <v>3001800</v>
       </c>
       <c r="V110">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3216000</v>
+      </c>
+      <c r="X110"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>9504000</v>
       </c>
@@ -7351,22 +9387,23 @@
         <v>110</v>
       </c>
       <c r="R111" s="2">
-        <v>2500</v>
+        <v>3383600</v>
       </c>
       <c r="S111">
-        <v>2100</v>
+        <v>3367600</v>
       </c>
       <c r="T111">
-        <v>2100</v>
-      </c>
-      <c r="U111" s="4">
-        <v>2800</v>
+        <v>3244200</v>
+      </c>
+      <c r="U111">
+        <v>3001900</v>
       </c>
       <c r="V111">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3216100</v>
+      </c>
+      <c r="X111"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>9590400</v>
       </c>
@@ -7413,22 +9450,23 @@
         <v>111</v>
       </c>
       <c r="R112" s="2">
-        <v>2500</v>
+        <v>3383700</v>
       </c>
       <c r="S112">
-        <v>2100</v>
+        <v>3367800</v>
       </c>
       <c r="T112">
-        <v>2200</v>
-      </c>
-      <c r="U112" s="4">
-        <v>2800</v>
+        <v>3244400</v>
+      </c>
+      <c r="U112">
+        <v>3002000</v>
       </c>
       <c r="V112">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3216200</v>
+      </c>
+      <c r="X112"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>9676800</v>
       </c>
@@ -7475,22 +9513,23 @@
         <v>112</v>
       </c>
       <c r="R113" s="2">
-        <v>2400</v>
+        <v>3383800</v>
       </c>
       <c r="S113">
-        <v>1800</v>
+        <v>3367900</v>
       </c>
       <c r="T113">
-        <v>2200</v>
-      </c>
-      <c r="U113" s="4">
-        <v>2800</v>
+        <v>3244500</v>
+      </c>
+      <c r="U113">
+        <v>3002200</v>
       </c>
       <c r="V113">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3216300</v>
+      </c>
+      <c r="X113"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>9763200</v>
       </c>
@@ -7537,22 +9576,23 @@
         <v>113</v>
       </c>
       <c r="R114" s="2">
-        <v>2100</v>
+        <v>3383900</v>
       </c>
       <c r="S114">
-        <v>1800</v>
+        <v>3368000</v>
       </c>
       <c r="T114">
-        <v>2200</v>
-      </c>
-      <c r="U114" s="4">
-        <v>2800</v>
+        <v>3244700</v>
+      </c>
+      <c r="U114">
+        <v>3002500</v>
       </c>
       <c r="V114">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3216400</v>
+      </c>
+      <c r="X114"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>9849600</v>
       </c>
@@ -7599,22 +9639,23 @@
         <v>114</v>
       </c>
       <c r="R115" s="2">
-        <v>2000</v>
+        <v>3384100</v>
       </c>
       <c r="S115">
-        <v>1800</v>
+        <v>3368100</v>
       </c>
       <c r="T115">
-        <v>2300</v>
-      </c>
-      <c r="U115" s="4">
-        <v>2700</v>
+        <v>3244900</v>
+      </c>
+      <c r="U115">
+        <v>3002600</v>
       </c>
       <c r="V115">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3216500</v>
+      </c>
+      <c r="X115"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>9936000</v>
       </c>
@@ -7661,22 +9702,23 @@
         <v>115</v>
       </c>
       <c r="R116" s="2">
-        <v>2100</v>
+        <v>3384200</v>
       </c>
       <c r="S116">
-        <v>1800</v>
+        <v>3368200</v>
       </c>
       <c r="T116">
-        <v>2300</v>
-      </c>
-      <c r="U116" s="4">
-        <v>2800</v>
+        <v>3245000</v>
+      </c>
+      <c r="U116">
+        <v>3002700</v>
       </c>
       <c r="V116">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3216800</v>
+      </c>
+      <c r="X116"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>10022400</v>
       </c>
@@ -7723,22 +9765,23 @@
         <v>116</v>
       </c>
       <c r="R117" s="2">
-        <v>2100</v>
+        <v>3384300</v>
       </c>
       <c r="S117">
-        <v>1700</v>
+        <v>3368300</v>
       </c>
       <c r="T117">
-        <v>2300</v>
-      </c>
-      <c r="U117" s="4">
-        <v>2900</v>
+        <v>3245100</v>
+      </c>
+      <c r="U117">
+        <v>3003000</v>
       </c>
       <c r="V117">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3217000</v>
+      </c>
+      <c r="X117"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>10108800</v>
       </c>
@@ -7785,22 +9828,23 @@
         <v>117</v>
       </c>
       <c r="R118" s="2">
-        <v>2000</v>
+        <v>3384400</v>
       </c>
       <c r="S118">
-        <v>1700</v>
+        <v>3368400</v>
       </c>
       <c r="T118">
-        <v>2300</v>
-      </c>
-      <c r="U118" s="4">
-        <v>2900</v>
+        <v>3245200</v>
+      </c>
+      <c r="U118">
+        <v>3003100</v>
       </c>
       <c r="V118">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3217100</v>
+      </c>
+      <c r="X118"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>10195200</v>
       </c>
@@ -7847,22 +9891,23 @@
         <v>118</v>
       </c>
       <c r="R119" s="2">
-        <v>2000</v>
+        <v>3384500</v>
       </c>
       <c r="S119">
-        <v>1800</v>
+        <v>3368500</v>
       </c>
       <c r="T119">
-        <v>2300</v>
-      </c>
-      <c r="U119" s="4">
-        <v>3000</v>
+        <v>3245400</v>
+      </c>
+      <c r="U119">
+        <v>3003300</v>
       </c>
       <c r="V119">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3217200</v>
+      </c>
+      <c r="X119"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>10281600</v>
       </c>
@@ -7909,22 +9954,23 @@
         <v>119</v>
       </c>
       <c r="R120" s="2">
-        <v>1900</v>
+        <v>3384600</v>
       </c>
       <c r="S120">
-        <v>1800</v>
+        <v>3368600</v>
       </c>
       <c r="T120">
-        <v>2300</v>
-      </c>
-      <c r="U120" s="4">
-        <v>3100</v>
+        <v>3245500</v>
+      </c>
+      <c r="U120">
+        <v>3003500</v>
       </c>
       <c r="V120">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3217400</v>
+      </c>
+      <c r="X120"/>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>10368000</v>
       </c>
@@ -7971,22 +10017,23 @@
         <v>120</v>
       </c>
       <c r="R121" s="2">
-        <v>1900</v>
+        <v>3384700</v>
       </c>
       <c r="S121">
-        <v>1800</v>
+        <v>3368700</v>
       </c>
       <c r="T121">
-        <v>2300</v>
-      </c>
-      <c r="U121" s="4">
-        <v>3300</v>
+        <v>3245600</v>
+      </c>
+      <c r="U121">
+        <v>3003800</v>
       </c>
       <c r="V121">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3217600</v>
+      </c>
+      <c r="X121"/>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>10454400</v>
       </c>
@@ -8033,22 +10080,23 @@
         <v>121</v>
       </c>
       <c r="R122" s="2">
-        <v>2000</v>
+        <v>3384900</v>
       </c>
       <c r="S122">
-        <v>1900</v>
+        <v>3368900</v>
       </c>
       <c r="T122">
-        <v>2300</v>
-      </c>
-      <c r="U122" s="4">
-        <v>3100</v>
+        <v>3245700</v>
+      </c>
+      <c r="U122">
+        <v>3003900</v>
       </c>
       <c r="V122">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3217900</v>
+      </c>
+      <c r="X122"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>10540800</v>
       </c>
@@ -8095,22 +10143,23 @@
         <v>122</v>
       </c>
       <c r="R123" s="2">
-        <v>1900</v>
+        <v>3385000</v>
       </c>
       <c r="S123">
-        <v>2100</v>
+        <v>3369200</v>
       </c>
       <c r="T123">
-        <v>2300</v>
-      </c>
-      <c r="U123" s="4">
-        <v>3100</v>
+        <v>3245900</v>
+      </c>
+      <c r="U123">
+        <v>3004200</v>
       </c>
       <c r="V123">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3218000</v>
+      </c>
+      <c r="X123"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>10627200</v>
       </c>
@@ -8157,22 +10206,23 @@
         <v>123</v>
       </c>
       <c r="R124" s="2">
-        <v>1900</v>
+        <v>3385100</v>
       </c>
       <c r="S124">
-        <v>2100</v>
+        <v>3369300</v>
       </c>
       <c r="T124">
-        <v>2100</v>
-      </c>
-      <c r="U124" s="4">
-        <v>3200</v>
+        <v>3246000</v>
+      </c>
+      <c r="U124">
+        <v>3004500</v>
       </c>
       <c r="V124">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3218100</v>
+      </c>
+      <c r="X124"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>10713600</v>
       </c>
@@ -8219,22 +10269,23 @@
         <v>124</v>
       </c>
       <c r="R125" s="2">
-        <v>1900</v>
+        <v>3385200</v>
       </c>
       <c r="S125">
-        <v>2200</v>
+        <v>3369500</v>
       </c>
       <c r="T125">
-        <v>2200</v>
-      </c>
-      <c r="U125" s="4">
-        <v>3200</v>
+        <v>3246200</v>
+      </c>
+      <c r="U125">
+        <v>3004700</v>
       </c>
       <c r="V125">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3218300</v>
+      </c>
+      <c r="X125"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>10800000</v>
       </c>
@@ -8281,22 +10332,23 @@
         <v>125</v>
       </c>
       <c r="R126" s="2">
-        <v>1800</v>
+        <v>3385300</v>
       </c>
       <c r="S126">
-        <v>2100</v>
+        <v>3369600</v>
       </c>
       <c r="T126">
-        <v>2200</v>
-      </c>
-      <c r="U126" s="4">
-        <v>3300</v>
+        <v>3246300</v>
+      </c>
+      <c r="U126">
+        <v>3004900</v>
       </c>
       <c r="V126">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3218400</v>
+      </c>
+      <c r="X126"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>10886400</v>
       </c>
@@ -8343,22 +10395,23 @@
         <v>126</v>
       </c>
       <c r="R127" s="2">
-        <v>1800</v>
+        <v>3385400</v>
       </c>
       <c r="S127">
-        <v>2000</v>
+        <v>3369700</v>
       </c>
       <c r="T127">
-        <v>2200</v>
-      </c>
-      <c r="U127" s="4">
-        <v>3200</v>
+        <v>3246500</v>
+      </c>
+      <c r="U127">
+        <v>3005000</v>
       </c>
       <c r="V127">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3218500</v>
+      </c>
+      <c r="X127"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>10972800</v>
       </c>
@@ -8405,22 +10458,23 @@
         <v>127</v>
       </c>
       <c r="R128" s="2">
-        <v>2000</v>
+        <v>3385700</v>
       </c>
       <c r="S128">
-        <v>2000</v>
+        <v>3369800</v>
       </c>
       <c r="T128">
-        <v>2200</v>
-      </c>
-      <c r="U128" s="4">
-        <v>3300</v>
+        <v>3246600</v>
+      </c>
+      <c r="U128">
+        <v>3005400</v>
       </c>
       <c r="V128">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3218600</v>
+      </c>
+      <c r="X128"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>11059200</v>
       </c>
@@ -8467,22 +10521,23 @@
         <v>128</v>
       </c>
       <c r="R129" s="2">
-        <v>2000</v>
+        <v>3385800</v>
       </c>
       <c r="S129">
-        <v>2000</v>
+        <v>3369900</v>
       </c>
       <c r="T129">
-        <v>2200</v>
-      </c>
-      <c r="U129" s="4">
-        <v>3100</v>
+        <v>3246800</v>
+      </c>
+      <c r="U129">
+        <v>3005500</v>
       </c>
       <c r="V129">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3218700</v>
+      </c>
+      <c r="X129"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>11145600</v>
       </c>
@@ -8529,22 +10584,23 @@
         <v>129</v>
       </c>
       <c r="R130" s="2">
-        <v>1900</v>
+        <v>3385900</v>
       </c>
       <c r="S130">
-        <v>2100</v>
+        <v>3370100</v>
       </c>
       <c r="T130">
-        <v>2100</v>
-      </c>
-      <c r="U130" s="4">
-        <v>3300</v>
+        <v>3246900</v>
+      </c>
+      <c r="U130">
+        <v>3005800</v>
       </c>
       <c r="V130">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3218800</v>
+      </c>
+      <c r="X130"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>11232000</v>
       </c>
@@ -8591,22 +10647,23 @@
         <v>130</v>
       </c>
       <c r="R131" s="2">
-        <v>1900</v>
+        <v>3386000</v>
       </c>
       <c r="S131">
-        <v>2100</v>
+        <v>3370200</v>
       </c>
       <c r="T131">
-        <v>2100</v>
-      </c>
-      <c r="U131" s="4">
-        <v>3300</v>
+        <v>3247000</v>
+      </c>
+      <c r="U131">
+        <v>3005900</v>
       </c>
       <c r="V131">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3218900</v>
+      </c>
+      <c r="X131"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>11318400</v>
       </c>
@@ -8653,22 +10710,23 @@
         <v>131</v>
       </c>
       <c r="R132" s="2">
-        <v>1900</v>
+        <v>3386100</v>
       </c>
       <c r="S132">
-        <v>2200</v>
+        <v>3370400</v>
       </c>
       <c r="T132">
-        <v>2100</v>
-      </c>
-      <c r="U132" s="4">
-        <v>3200</v>
+        <v>3247100</v>
+      </c>
+      <c r="U132">
+        <v>3006100</v>
       </c>
       <c r="V132">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3219000</v>
+      </c>
+      <c r="X132"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>11404800</v>
       </c>
@@ -8715,22 +10773,23 @@
         <v>132</v>
       </c>
       <c r="R133" s="2">
-        <v>1900</v>
+        <v>3386200</v>
       </c>
       <c r="S133">
-        <v>2200</v>
+        <v>3370500</v>
       </c>
       <c r="T133">
-        <v>2100</v>
-      </c>
-      <c r="U133" s="4">
-        <v>3200</v>
+        <v>3247200</v>
+      </c>
+      <c r="U133">
+        <v>3006200</v>
       </c>
       <c r="V133">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3219100</v>
+      </c>
+      <c r="X133"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>11491200</v>
       </c>
@@ -8777,22 +10836,23 @@
         <v>133</v>
       </c>
       <c r="R134" s="2">
-        <v>1900</v>
+        <v>3386300</v>
       </c>
       <c r="S134">
-        <v>2300</v>
+        <v>3370700</v>
       </c>
       <c r="T134">
-        <v>2000</v>
-      </c>
-      <c r="U134" s="4">
-        <v>3200</v>
+        <v>3247300</v>
+      </c>
+      <c r="U134">
+        <v>3006400</v>
       </c>
       <c r="V134">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3219200</v>
+      </c>
+      <c r="X134"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>11577600</v>
       </c>
@@ -8839,22 +10899,23 @@
         <v>134</v>
       </c>
       <c r="R135" s="2">
-        <v>1900</v>
+        <v>3386400</v>
       </c>
       <c r="S135">
-        <v>2300</v>
+        <v>3370800</v>
       </c>
       <c r="T135">
-        <v>2000</v>
-      </c>
-      <c r="U135" s="4">
-        <v>3200</v>
+        <v>3247400</v>
+      </c>
+      <c r="U135">
+        <v>3006600</v>
       </c>
       <c r="V135">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3219300</v>
+      </c>
+      <c r="X135"/>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>11664000</v>
       </c>
@@ -8901,22 +10962,23 @@
         <v>135</v>
       </c>
       <c r="R136" s="2">
-        <v>1900</v>
+        <v>3386500</v>
       </c>
       <c r="S136">
-        <v>2300</v>
+        <v>3370900</v>
       </c>
       <c r="T136">
-        <v>2000</v>
-      </c>
-      <c r="U136" s="4">
-        <v>3200</v>
+        <v>3247500</v>
+      </c>
+      <c r="U136">
+        <v>3006900</v>
       </c>
       <c r="V136">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3219700</v>
+      </c>
+      <c r="X136"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>11750400</v>
       </c>
@@ -8963,22 +11025,23 @@
         <v>136</v>
       </c>
       <c r="R137" s="2">
-        <v>1900</v>
+        <v>3386700</v>
       </c>
       <c r="S137">
-        <v>2200</v>
+        <v>3371000</v>
       </c>
       <c r="T137">
-        <v>2100</v>
-      </c>
-      <c r="U137" s="4">
-        <v>3400</v>
+        <v>3247700</v>
+      </c>
+      <c r="U137">
+        <v>3007200</v>
       </c>
       <c r="V137">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3219800</v>
+      </c>
+      <c r="X137"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>11836800</v>
       </c>
@@ -9025,22 +11088,23 @@
         <v>137</v>
       </c>
       <c r="R138" s="2">
-        <v>1900</v>
+        <v>3386800</v>
       </c>
       <c r="S138">
-        <v>2000</v>
+        <v>3371100</v>
       </c>
       <c r="T138">
-        <v>2100</v>
-      </c>
-      <c r="U138" s="4">
-        <v>3300</v>
+        <v>3247900</v>
+      </c>
+      <c r="U138">
+        <v>3007400</v>
       </c>
       <c r="V138">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3220000</v>
+      </c>
+      <c r="X138"/>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>11923200</v>
       </c>
@@ -9087,22 +11151,23 @@
         <v>138</v>
       </c>
       <c r="R139" s="2">
-        <v>1900</v>
+        <v>3386900</v>
       </c>
       <c r="S139">
-        <v>2000</v>
+        <v>3371200</v>
       </c>
       <c r="T139">
-        <v>2200</v>
-      </c>
-      <c r="U139" s="4">
-        <v>3300</v>
+        <v>3248100</v>
+      </c>
+      <c r="U139">
+        <v>3007700</v>
       </c>
       <c r="V139">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3220200</v>
+      </c>
+      <c r="X139"/>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>12009600</v>
       </c>
@@ -9149,22 +11214,23 @@
         <v>139</v>
       </c>
       <c r="R140" s="2">
-        <v>1900</v>
+        <v>3387000</v>
       </c>
       <c r="S140">
-        <v>2100</v>
+        <v>3371500</v>
       </c>
       <c r="T140">
-        <v>2100</v>
-      </c>
-      <c r="U140" s="4">
-        <v>3200</v>
+        <v>3248200</v>
+      </c>
+      <c r="U140">
+        <v>3007800</v>
       </c>
       <c r="V140">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3220300</v>
+      </c>
+      <c r="X140"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>12096000</v>
       </c>
@@ -9211,22 +11277,23 @@
         <v>140</v>
       </c>
       <c r="R141" s="2">
-        <v>2000</v>
+        <v>3387200</v>
       </c>
       <c r="S141">
-        <v>2100</v>
+        <v>3371600</v>
       </c>
       <c r="T141">
-        <v>2200</v>
-      </c>
-      <c r="U141" s="4">
-        <v>3100</v>
+        <v>3248400</v>
+      </c>
+      <c r="U141">
+        <v>3007900</v>
       </c>
       <c r="V141">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3220500</v>
+      </c>
+      <c r="X141"/>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>12182400</v>
       </c>
@@ -9273,22 +11340,23 @@
         <v>141</v>
       </c>
       <c r="R142" s="2">
-        <v>2000</v>
+        <v>3387300</v>
       </c>
       <c r="S142">
-        <v>2100</v>
+        <v>3371700</v>
       </c>
       <c r="T142">
-        <v>2200</v>
-      </c>
-      <c r="U142" s="4">
-        <v>3200</v>
+        <v>3248500</v>
+      </c>
+      <c r="U142">
+        <v>3008100</v>
       </c>
       <c r="V142">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3220700</v>
+      </c>
+      <c r="X142"/>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>12268800</v>
       </c>
@@ -9335,22 +11403,23 @@
         <v>142</v>
       </c>
       <c r="R143" s="2">
-        <v>1800</v>
+        <v>3387400</v>
       </c>
       <c r="S143">
-        <v>2200</v>
+        <v>3371800</v>
       </c>
       <c r="T143">
-        <v>2400</v>
-      </c>
-      <c r="U143" s="4">
-        <v>3000</v>
+        <v>3248800</v>
+      </c>
+      <c r="U143">
+        <v>3008300</v>
       </c>
       <c r="V143">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3220800</v>
+      </c>
+      <c r="X143"/>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>12355200</v>
       </c>
@@ -9397,22 +11466,23 @@
         <v>143</v>
       </c>
       <c r="R144" s="2">
-        <v>2100</v>
+        <v>3387800</v>
       </c>
       <c r="S144">
-        <v>2400</v>
+        <v>3372100</v>
       </c>
       <c r="T144">
-        <v>2400</v>
-      </c>
-      <c r="U144" s="4">
-        <v>3000</v>
+        <v>3248900</v>
+      </c>
+      <c r="U144">
+        <v>3008400</v>
       </c>
       <c r="V144">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3221000</v>
+      </c>
+      <c r="X144"/>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>12441600</v>
       </c>
@@ -9459,22 +11529,23 @@
         <v>144</v>
       </c>
       <c r="R145" s="2">
-        <v>2200</v>
+        <v>3388000</v>
       </c>
       <c r="S145">
-        <v>2300</v>
+        <v>3372200</v>
       </c>
       <c r="T145">
-        <v>2400</v>
-      </c>
-      <c r="U145" s="4">
-        <v>2900</v>
+        <v>3249000</v>
+      </c>
+      <c r="U145">
+        <v>3008600</v>
       </c>
       <c r="V145">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3221200</v>
+      </c>
+      <c r="X145"/>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>12528000</v>
       </c>
@@ -9521,22 +11592,23 @@
         <v>145</v>
       </c>
       <c r="R146" s="2">
-        <v>2400</v>
+        <v>3388300</v>
       </c>
       <c r="S146">
-        <v>2300</v>
+        <v>3372300</v>
       </c>
       <c r="T146">
-        <v>2400</v>
-      </c>
-      <c r="U146" s="4">
-        <v>2900</v>
+        <v>3249100</v>
+      </c>
+      <c r="U146">
+        <v>3008700</v>
       </c>
       <c r="V146">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3221400</v>
+      </c>
+      <c r="X146"/>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>12614400</v>
       </c>
@@ -9583,22 +11655,23 @@
         <v>146</v>
       </c>
       <c r="R147" s="2">
-        <v>2400</v>
+        <v>3388400</v>
       </c>
       <c r="S147">
-        <v>2200</v>
+        <v>3372400</v>
       </c>
       <c r="T147">
-        <v>2600</v>
-      </c>
-      <c r="U147" s="4">
-        <v>2800</v>
+        <v>3249400</v>
+      </c>
+      <c r="U147">
+        <v>3008800</v>
       </c>
       <c r="V147">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3221500</v>
+      </c>
+      <c r="X147"/>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>12700800</v>
       </c>
@@ -9645,22 +11718,23 @@
         <v>147</v>
       </c>
       <c r="R148" s="2">
-        <v>2400</v>
+        <v>3388500</v>
       </c>
       <c r="S148">
-        <v>2200</v>
+        <v>3372500</v>
       </c>
       <c r="T148">
-        <v>2600</v>
-      </c>
-      <c r="U148" s="4">
-        <v>2900</v>
+        <v>3249500</v>
+      </c>
+      <c r="U148">
+        <v>3009000</v>
       </c>
       <c r="V148">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3221600</v>
+      </c>
+      <c r="X148"/>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>12787200</v>
       </c>
@@ -9707,22 +11781,23 @@
         <v>148</v>
       </c>
       <c r="R149" s="2">
-        <v>2500</v>
+        <v>3388700</v>
       </c>
       <c r="S149">
-        <v>2100</v>
+        <v>3372600</v>
       </c>
       <c r="T149">
-        <v>2500</v>
-      </c>
-      <c r="U149" s="4">
-        <v>2900</v>
+        <v>3249600</v>
+      </c>
+      <c r="U149">
+        <v>3009200</v>
       </c>
       <c r="V149">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3221700</v>
+      </c>
+      <c r="X149"/>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>12873600</v>
       </c>
@@ -9769,22 +11844,23 @@
         <v>149</v>
       </c>
       <c r="R150" s="2">
-        <v>2600</v>
+        <v>3388900</v>
       </c>
       <c r="S150">
-        <v>2200</v>
+        <v>3372900</v>
       </c>
       <c r="T150">
-        <v>2600</v>
-      </c>
-      <c r="U150" s="4">
-        <v>2900</v>
+        <v>3249800</v>
+      </c>
+      <c r="U150">
+        <v>3009400</v>
       </c>
       <c r="V150">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3221900</v>
+      </c>
+      <c r="X150"/>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>12960000</v>
       </c>
@@ -9831,22 +11907,23 @@
         <v>150</v>
       </c>
       <c r="R151" s="2">
-        <v>2700</v>
+        <v>3389100</v>
       </c>
       <c r="S151">
-        <v>2200</v>
+        <v>3373000</v>
       </c>
       <c r="T151">
-        <v>2500</v>
-      </c>
-      <c r="U151" s="4">
-        <v>2700</v>
+        <v>3249900</v>
+      </c>
+      <c r="U151">
+        <v>3009500</v>
       </c>
       <c r="V151">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3222000</v>
+      </c>
+      <c r="X151"/>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>13046400</v>
       </c>
@@ -9893,22 +11970,23 @@
         <v>151</v>
       </c>
       <c r="R152" s="2">
-        <v>2700</v>
+        <v>3389200</v>
       </c>
       <c r="S152">
-        <v>2200</v>
+        <v>3373100</v>
       </c>
       <c r="T152">
-        <v>2400</v>
-      </c>
-      <c r="U152" s="4">
-        <v>2500</v>
+        <v>3250000</v>
+      </c>
+      <c r="U152">
+        <v>3009600</v>
       </c>
       <c r="V152">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3222100</v>
+      </c>
+      <c r="X152"/>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>13132800</v>
       </c>
@@ -9955,22 +12033,23 @@
         <v>152</v>
       </c>
       <c r="R153" s="2">
-        <v>2800</v>
+        <v>3389400</v>
       </c>
       <c r="S153">
-        <v>2200</v>
+        <v>3373200</v>
       </c>
       <c r="T153">
-        <v>2300</v>
-      </c>
-      <c r="U153" s="4">
-        <v>2400</v>
+        <v>3250100</v>
+      </c>
+      <c r="U153">
+        <v>3009700</v>
       </c>
       <c r="V153">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3222200</v>
+      </c>
+      <c r="X153"/>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>13219200</v>
       </c>
@@ -10017,22 +12096,23 @@
         <v>153</v>
       </c>
       <c r="R154" s="2">
-        <v>2900</v>
+        <v>3389500</v>
       </c>
       <c r="S154">
-        <v>2300</v>
+        <v>3373300</v>
       </c>
       <c r="T154">
-        <v>2400</v>
-      </c>
-      <c r="U154" s="4">
-        <v>2200</v>
+        <v>3250400</v>
+      </c>
+      <c r="U154">
+        <v>3009800</v>
       </c>
       <c r="V154">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3222500</v>
+      </c>
+      <c r="X154"/>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>13305600</v>
       </c>
@@ -10079,22 +12159,23 @@
         <v>154</v>
       </c>
       <c r="R155" s="2">
-        <v>3100</v>
+        <v>3389800</v>
       </c>
       <c r="S155">
-        <v>2300</v>
+        <v>3373500</v>
       </c>
       <c r="T155">
-        <v>2400</v>
-      </c>
-      <c r="U155" s="4">
-        <v>2200</v>
+        <v>3250500</v>
+      </c>
+      <c r="U155">
+        <v>3009900</v>
       </c>
       <c r="V155">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3222700</v>
+      </c>
+      <c r="X155"/>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>13392000</v>
       </c>
@@ -10141,22 +12222,23 @@
         <v>155</v>
       </c>
       <c r="R156" s="2">
-        <v>3000</v>
+        <v>3389900</v>
       </c>
       <c r="S156">
-        <v>2300</v>
+        <v>3373600</v>
       </c>
       <c r="T156">
-        <v>2300</v>
-      </c>
-      <c r="U156" s="4">
-        <v>2200</v>
+        <v>3250600</v>
+      </c>
+      <c r="U156">
+        <v>3010000</v>
       </c>
       <c r="V156">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3222900</v>
+      </c>
+      <c r="X156"/>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>13478400</v>
       </c>
@@ -10203,22 +12285,23 @@
         <v>156</v>
       </c>
       <c r="R157" s="2">
-        <v>3000</v>
+        <v>3390000</v>
       </c>
       <c r="S157">
-        <v>2400</v>
+        <v>3373800</v>
       </c>
       <c r="T157">
-        <v>2400</v>
-      </c>
-      <c r="U157" s="4">
-        <v>2300</v>
+        <v>3250800</v>
+      </c>
+      <c r="U157">
+        <v>3010200</v>
       </c>
       <c r="V157">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3223000</v>
+      </c>
+      <c r="X157"/>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>13564800</v>
       </c>
@@ -10265,22 +12348,23 @@
         <v>157</v>
       </c>
       <c r="R158" s="2">
-        <v>3000</v>
+        <v>3390100</v>
       </c>
       <c r="S158">
-        <v>2400</v>
+        <v>3373900</v>
       </c>
       <c r="T158">
-        <v>2300</v>
-      </c>
-      <c r="U158" s="4">
-        <v>2300</v>
+        <v>3251000</v>
+      </c>
+      <c r="U158">
+        <v>3010400</v>
       </c>
       <c r="V158">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3223200</v>
+      </c>
+      <c r="X158"/>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>13651200</v>
       </c>
@@ -10327,22 +12411,23 @@
         <v>158</v>
       </c>
       <c r="R159" s="2">
-        <v>2600</v>
+        <v>3390200</v>
       </c>
       <c r="S159">
-        <v>2200</v>
+        <v>3374000</v>
       </c>
       <c r="T159">
-        <v>2400</v>
-      </c>
-      <c r="U159" s="4">
-        <v>2300</v>
+        <v>3251200</v>
+      </c>
+      <c r="U159">
+        <v>3010500</v>
       </c>
       <c r="V159">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3223300</v>
+      </c>
+      <c r="X159"/>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>13737600</v>
       </c>
@@ -10389,22 +12474,23 @@
         <v>159</v>
       </c>
       <c r="R160" s="2">
-        <v>2500</v>
+        <v>3390300</v>
       </c>
       <c r="S160">
-        <v>2200</v>
+        <v>3374100</v>
       </c>
       <c r="T160">
-        <v>2500</v>
-      </c>
-      <c r="U160" s="4">
-        <v>2200</v>
+        <v>3251400</v>
+      </c>
+      <c r="U160">
+        <v>3010600</v>
       </c>
       <c r="V160">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3223400</v>
+      </c>
+      <c r="X160"/>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>13824000</v>
       </c>
@@ -10451,22 +12537,23 @@
         <v>160</v>
       </c>
       <c r="R161" s="2">
-        <v>2200</v>
+        <v>3390400</v>
       </c>
       <c r="S161">
-        <v>2100</v>
+        <v>3374200</v>
       </c>
       <c r="T161">
-        <v>2500</v>
-      </c>
-      <c r="U161" s="4">
-        <v>2200</v>
+        <v>3251500</v>
+      </c>
+      <c r="U161">
+        <v>3010700</v>
       </c>
       <c r="V161">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3223500</v>
+      </c>
+      <c r="X161"/>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>13910400</v>
       </c>
@@ -10513,22 +12600,23 @@
         <v>161</v>
       </c>
       <c r="R162" s="2">
-        <v>2200</v>
+        <v>3390500</v>
       </c>
       <c r="S162">
-        <v>2000</v>
+        <v>3374300</v>
       </c>
       <c r="T162">
-        <v>2500</v>
-      </c>
-      <c r="U162" s="4">
-        <v>2400</v>
+        <v>3251800</v>
+      </c>
+      <c r="U162">
+        <v>3011000</v>
       </c>
       <c r="V162">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3223700</v>
+      </c>
+      <c r="X162"/>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>13996800</v>
       </c>
@@ -10575,22 +12663,23 @@
         <v>162</v>
       </c>
       <c r="R163" s="2">
-        <v>2200</v>
+        <v>3390600</v>
       </c>
       <c r="S163">
-        <v>2100</v>
+        <v>3374500</v>
       </c>
       <c r="T163">
-        <v>2600</v>
-      </c>
-      <c r="U163" s="4">
-        <v>2400</v>
+        <v>3252000</v>
+      </c>
+      <c r="U163">
+        <v>3011200</v>
       </c>
       <c r="V163">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3223800</v>
+      </c>
+      <c r="X163"/>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>14083200</v>
       </c>
@@ -10637,22 +12726,23 @@
         <v>163</v>
       </c>
       <c r="R164" s="2">
-        <v>2100</v>
+        <v>3390700</v>
       </c>
       <c r="S164">
-        <v>2100</v>
+        <v>3374600</v>
       </c>
       <c r="T164">
-        <v>2700</v>
-      </c>
-      <c r="U164" s="4">
-        <v>2400</v>
+        <v>3252100</v>
+      </c>
+      <c r="U164">
+        <v>3011500</v>
       </c>
       <c r="V164">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3223900</v>
+      </c>
+      <c r="X164"/>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>14169600</v>
       </c>
@@ -10699,22 +12789,23 @@
         <v>164</v>
       </c>
       <c r="R165" s="2">
-        <v>2100</v>
+        <v>3390900</v>
       </c>
       <c r="S165">
-        <v>1900</v>
+        <v>3374700</v>
       </c>
       <c r="T165">
-        <v>2800</v>
-      </c>
-      <c r="U165" s="4">
-        <v>2400</v>
+        <v>3252400</v>
+      </c>
+      <c r="U165">
+        <v>3011600</v>
       </c>
       <c r="V165">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3224000</v>
+      </c>
+      <c r="X165"/>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>14256000</v>
       </c>
@@ -10761,22 +12852,23 @@
         <v>165</v>
       </c>
       <c r="R166" s="2">
-        <v>2000</v>
+        <v>3391000</v>
       </c>
       <c r="S166">
-        <v>2000</v>
+        <v>3374900</v>
       </c>
       <c r="T166">
-        <v>2800</v>
-      </c>
-      <c r="U166" s="4">
-        <v>2500</v>
+        <v>3252500</v>
+      </c>
+      <c r="U166">
+        <v>3011800</v>
       </c>
       <c r="V166">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3224100</v>
+      </c>
+      <c r="X166"/>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>14342400</v>
       </c>
@@ -10823,22 +12915,23 @@
         <v>166</v>
       </c>
       <c r="R167" s="2">
-        <v>2000</v>
+        <v>3391100</v>
       </c>
       <c r="S167">
-        <v>2100</v>
+        <v>3375100</v>
       </c>
       <c r="T167">
-        <v>3000</v>
-      </c>
-      <c r="U167" s="4">
-        <v>2800</v>
+        <v>3252800</v>
+      </c>
+      <c r="U167">
+        <v>3012200</v>
       </c>
       <c r="V167">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3224200</v>
+      </c>
+      <c r="X167"/>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>14428800</v>
       </c>
@@ -10885,22 +12978,23 @@
         <v>167</v>
       </c>
       <c r="R168" s="2">
-        <v>1900</v>
+        <v>3391200</v>
       </c>
       <c r="S168">
-        <v>2100</v>
+        <v>3375200</v>
       </c>
       <c r="T168">
-        <v>3000</v>
-      </c>
-      <c r="U168" s="4">
-        <v>3100</v>
+        <v>3252900</v>
+      </c>
+      <c r="U168">
+        <v>3012600</v>
       </c>
       <c r="V168">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3224300</v>
+      </c>
+      <c r="X168"/>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>14515200</v>
       </c>
@@ -10947,22 +13041,23 @@
         <v>168</v>
       </c>
       <c r="R169" s="2">
-        <v>1900</v>
+        <v>3391300</v>
       </c>
       <c r="S169">
-        <v>2100</v>
+        <v>3375300</v>
       </c>
       <c r="T169">
-        <v>2800</v>
-      </c>
-      <c r="U169" s="4">
-        <v>3200</v>
+        <v>3253000</v>
+      </c>
+      <c r="U169">
+        <v>3012700</v>
       </c>
       <c r="V169">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3224400</v>
+      </c>
+      <c r="X169"/>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>14601600</v>
       </c>
@@ -11009,22 +13104,23 @@
         <v>169</v>
       </c>
       <c r="R170" s="2">
-        <v>1800</v>
+        <v>3391400</v>
       </c>
       <c r="S170">
-        <v>2000</v>
+        <v>3375400</v>
       </c>
       <c r="T170">
-        <v>2800</v>
-      </c>
-      <c r="U170" s="4">
-        <v>3600</v>
+        <v>3253100</v>
+      </c>
+      <c r="U170">
+        <v>3013200</v>
       </c>
       <c r="V170">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3224500</v>
+      </c>
+      <c r="X170"/>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>14688000</v>
       </c>
@@ -11071,22 +13167,23 @@
         <v>170</v>
       </c>
       <c r="R171" s="2">
-        <v>1800</v>
+        <v>3391500</v>
       </c>
       <c r="S171">
-        <v>2000</v>
+        <v>3375500</v>
       </c>
       <c r="T171">
-        <v>2700</v>
-      </c>
-      <c r="U171" s="4">
-        <v>3600</v>
+        <v>3253200</v>
+      </c>
+      <c r="U171">
+        <v>3013300</v>
       </c>
       <c r="V171">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3224700</v>
+      </c>
+      <c r="X171"/>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>14774400</v>
       </c>
@@ -11133,22 +13230,23 @@
         <v>171</v>
       </c>
       <c r="R172" s="2">
-        <v>1800</v>
+        <v>3391600</v>
       </c>
       <c r="S172">
-        <v>2000</v>
+        <v>3375600</v>
       </c>
       <c r="T172">
-        <v>2700</v>
-      </c>
-      <c r="U172" s="4">
-        <v>3600</v>
+        <v>3253400</v>
+      </c>
+      <c r="U172">
+        <v>3013600</v>
       </c>
       <c r="V172">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3225200</v>
+      </c>
+      <c r="X172"/>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>14860800</v>
       </c>
@@ -11195,22 +13293,23 @@
         <v>172</v>
       </c>
       <c r="R173" s="2">
-        <v>1900</v>
+        <v>3391800</v>
       </c>
       <c r="S173">
-        <v>2000</v>
+        <v>3375700</v>
       </c>
       <c r="T173">
-        <v>2600</v>
-      </c>
-      <c r="U173" s="4">
-        <v>3500</v>
+        <v>3253500</v>
+      </c>
+      <c r="U173">
+        <v>3013700</v>
       </c>
       <c r="V173">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3225400</v>
+      </c>
+      <c r="X173"/>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>14947200</v>
       </c>
@@ -11257,22 +13356,23 @@
         <v>173</v>
       </c>
       <c r="R174" s="2">
-        <v>1900</v>
+        <v>3391900</v>
       </c>
       <c r="S174">
-        <v>2100</v>
+        <v>3375900</v>
       </c>
       <c r="T174">
-        <v>2500</v>
-      </c>
-      <c r="U174" s="4">
-        <v>3600</v>
+        <v>3253600</v>
+      </c>
+      <c r="U174">
+        <v>3013900</v>
       </c>
       <c r="V174">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3225500</v>
+      </c>
+      <c r="X174"/>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>15033600</v>
       </c>
@@ -11319,22 +13419,23 @@
         <v>174</v>
       </c>
       <c r="R175" s="2">
-        <v>1900</v>
+        <v>3392000</v>
       </c>
       <c r="S175">
-        <v>2100</v>
+        <v>3376000</v>
       </c>
       <c r="T175">
-        <v>2400</v>
-      </c>
-      <c r="U175" s="4">
-        <v>3600</v>
+        <v>3253700</v>
+      </c>
+      <c r="U175">
+        <v>3014000</v>
       </c>
       <c r="V175">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3225900</v>
+      </c>
+      <c r="X175"/>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>15120000</v>
       </c>
@@ -11381,22 +13482,23 @@
         <v>175</v>
       </c>
       <c r="R176" s="2">
-        <v>1900</v>
+        <v>3392100</v>
       </c>
       <c r="S176">
-        <v>2100</v>
+        <v>3376100</v>
       </c>
       <c r="T176">
-        <v>2600</v>
-      </c>
-      <c r="U176" s="4">
-        <v>3600</v>
+        <v>3254000</v>
+      </c>
+      <c r="U176">
+        <v>3014200</v>
       </c>
       <c r="V176">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3226000</v>
+      </c>
+      <c r="X176"/>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>15206400</v>
       </c>
@@ -11443,22 +13545,23 @@
         <v>176</v>
       </c>
       <c r="R177" s="2">
-        <v>1900</v>
+        <v>3392200</v>
       </c>
       <c r="S177">
-        <v>2200</v>
+        <v>3376300</v>
       </c>
       <c r="T177">
-        <v>2500</v>
-      </c>
-      <c r="U177" s="4">
-        <v>3400</v>
+        <v>3254200</v>
+      </c>
+      <c r="U177">
+        <v>3014300</v>
       </c>
       <c r="V177">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3226200</v>
+      </c>
+      <c r="X177"/>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>15292800</v>
       </c>
@@ -11505,22 +13608,23 @@
         <v>177</v>
       </c>
       <c r="R178" s="2">
-        <v>1900</v>
+        <v>3392300</v>
       </c>
       <c r="S178">
-        <v>2100</v>
+        <v>3376400</v>
       </c>
       <c r="T178">
-        <v>2400</v>
-      </c>
-      <c r="U178" s="4">
-        <v>3400</v>
+        <v>3254300</v>
+      </c>
+      <c r="U178">
+        <v>3014500</v>
       </c>
       <c r="V178">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3226300</v>
+      </c>
+      <c r="X178"/>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>15379200</v>
       </c>
@@ -11567,22 +13671,23 @@
         <v>178</v>
       </c>
       <c r="R179" s="2">
-        <v>2000</v>
+        <v>3392500</v>
       </c>
       <c r="S179">
-        <v>2300</v>
+        <v>3376800</v>
       </c>
       <c r="T179">
-        <v>2600</v>
-      </c>
-      <c r="U179" s="4">
-        <v>3200</v>
+        <v>3254500</v>
+      </c>
+      <c r="U179">
+        <v>3014600</v>
       </c>
       <c r="V179">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3226500</v>
+      </c>
+      <c r="X179"/>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>15465600</v>
       </c>
@@ -11629,22 +13734,23 @@
         <v>179</v>
       </c>
       <c r="R180" s="2">
-        <v>1900</v>
+        <v>3392600</v>
       </c>
       <c r="S180">
-        <v>2300</v>
+        <v>3376900</v>
       </c>
       <c r="T180">
-        <v>2800</v>
-      </c>
-      <c r="U180" s="4">
-        <v>3300</v>
+        <v>3255000</v>
+      </c>
+      <c r="U180">
+        <v>3014800</v>
       </c>
       <c r="V180">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3226800</v>
+      </c>
+      <c r="X180"/>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>15552000</v>
       </c>
@@ -11691,22 +13797,23 @@
         <v>180</v>
       </c>
       <c r="R181" s="2">
-        <v>1900</v>
+        <v>3392700</v>
       </c>
       <c r="S181">
-        <v>2200</v>
+        <v>3377000</v>
       </c>
       <c r="T181">
-        <v>2800</v>
-      </c>
-      <c r="U181" s="4">
-        <v>3200</v>
+        <v>3255100</v>
+      </c>
+      <c r="U181">
+        <v>3014900</v>
       </c>
       <c r="V181">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3227000</v>
+      </c>
+      <c r="X181"/>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>15638400</v>
       </c>
@@ -11753,22 +13860,23 @@
         <v>181</v>
       </c>
       <c r="R182" s="2">
-        <v>2000</v>
+        <v>3392900</v>
       </c>
       <c r="S182">
-        <v>2200</v>
+        <v>3377200</v>
       </c>
       <c r="T182">
-        <v>2700</v>
-      </c>
-      <c r="U182" s="4">
-        <v>2900</v>
+        <v>3255300</v>
+      </c>
+      <c r="U182">
+        <v>3015000</v>
       </c>
       <c r="V182">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3227300</v>
+      </c>
+      <c r="X182"/>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>15724800</v>
       </c>
@@ -11815,22 +13923,23 @@
         <v>182</v>
       </c>
       <c r="R183" s="2">
-        <v>2000</v>
+        <v>3393000</v>
       </c>
       <c r="S183">
-        <v>2200</v>
+        <v>3377300</v>
       </c>
       <c r="T183">
-        <v>2700</v>
-      </c>
-      <c r="U183" s="4">
-        <v>2600</v>
+        <v>3255400</v>
+      </c>
+      <c r="U183">
+        <v>3015100</v>
       </c>
       <c r="V183">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3227500</v>
+      </c>
+      <c r="X183"/>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>15811200</v>
       </c>
@@ -11877,22 +13986,23 @@
         <v>183</v>
       </c>
       <c r="R184" s="2">
-        <v>2000</v>
+        <v>3393200</v>
       </c>
       <c r="S184">
-        <v>2200</v>
+        <v>3377400</v>
       </c>
       <c r="T184">
-        <v>2700</v>
-      </c>
-      <c r="U184" s="4">
-        <v>2600</v>
+        <v>3255500</v>
+      </c>
+      <c r="U184">
+        <v>3015200</v>
       </c>
       <c r="V184">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3227600</v>
+      </c>
+      <c r="X184"/>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>15897600</v>
       </c>
@@ -11939,22 +14049,23 @@
         <v>184</v>
       </c>
       <c r="R185" s="2">
-        <v>2000</v>
+        <v>3393300</v>
       </c>
       <c r="S185">
-        <v>2200</v>
+        <v>3377500</v>
       </c>
       <c r="T185">
-        <v>2700</v>
-      </c>
-      <c r="U185" s="4">
-        <v>2300</v>
+        <v>3255600</v>
+      </c>
+      <c r="U185">
+        <v>3015400</v>
       </c>
       <c r="V185">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3227700</v>
+      </c>
+      <c r="X185"/>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>15984000</v>
       </c>
@@ -12001,22 +14112,23 @@
         <v>185</v>
       </c>
       <c r="R186" s="2">
-        <v>2000</v>
+        <v>3393400</v>
       </c>
       <c r="S186">
-        <v>2300</v>
+        <v>3377700</v>
       </c>
       <c r="T186">
-        <v>2600</v>
-      </c>
-      <c r="U186" s="4">
-        <v>2300</v>
+        <v>3255700</v>
+      </c>
+      <c r="U186">
+        <v>3015500</v>
       </c>
       <c r="V186">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3227800</v>
+      </c>
+      <c r="X186"/>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>16070400</v>
       </c>
@@ -12063,22 +14175,23 @@
         <v>186</v>
       </c>
       <c r="R187" s="2">
-        <v>2100</v>
+        <v>3393600</v>
       </c>
       <c r="S187">
-        <v>2300</v>
+        <v>3377800</v>
       </c>
       <c r="T187">
-        <v>2500</v>
-      </c>
-      <c r="U187" s="4">
-        <v>2100</v>
+        <v>3255800</v>
+      </c>
+      <c r="U187">
+        <v>3015600</v>
       </c>
       <c r="V187">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3228000</v>
+      </c>
+      <c r="X187"/>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>16156800</v>
       </c>
@@ -12125,22 +14238,23 @@
         <v>187</v>
       </c>
       <c r="R188" s="2">
-        <v>2100</v>
+        <v>3393700</v>
       </c>
       <c r="S188">
-        <v>2400</v>
+        <v>3378000</v>
       </c>
       <c r="T188">
-        <v>2600</v>
-      </c>
-      <c r="U188" s="4">
-        <v>2100</v>
+        <v>3256000</v>
+      </c>
+      <c r="U188">
+        <v>3015700</v>
       </c>
       <c r="V188">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3228100</v>
+      </c>
+      <c r="X188"/>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>16243200</v>
       </c>
@@ -12187,22 +14301,23 @@
         <v>188</v>
       </c>
       <c r="R189" s="2">
-        <v>2300</v>
+        <v>3393900</v>
       </c>
       <c r="S189">
-        <v>2400</v>
+        <v>3378200</v>
       </c>
       <c r="T189">
-        <v>2600</v>
-      </c>
-      <c r="U189" s="4">
-        <v>2000</v>
+        <v>3256100</v>
+      </c>
+      <c r="U189">
+        <v>3015800</v>
       </c>
       <c r="V189">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3228200</v>
+      </c>
+      <c r="X189"/>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>16329600</v>
       </c>
@@ -12249,22 +14364,23 @@
         <v>189</v>
       </c>
       <c r="R190" s="2">
-        <v>2400</v>
+        <v>3394100</v>
       </c>
       <c r="S190">
-        <v>2400</v>
+        <v>3378300</v>
       </c>
       <c r="T190">
-        <v>2600</v>
-      </c>
-      <c r="U190" s="4">
-        <v>2200</v>
+        <v>3256200</v>
+      </c>
+      <c r="U190">
+        <v>3016100</v>
       </c>
       <c r="V190">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3228300</v>
+      </c>
+      <c r="X190"/>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>16416000</v>
       </c>
@@ -12311,22 +14427,23 @@
         <v>190</v>
       </c>
       <c r="R191" s="2">
-        <v>2600</v>
+        <v>3394400</v>
       </c>
       <c r="S191">
-        <v>2400</v>
+        <v>3378400</v>
       </c>
       <c r="T191">
-        <v>2500</v>
-      </c>
-      <c r="U191" s="4">
-        <v>2200</v>
+        <v>3256400</v>
+      </c>
+      <c r="U191">
+        <v>3016300</v>
       </c>
       <c r="V191">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3228400</v>
+      </c>
+      <c r="X191"/>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>16502400</v>
       </c>
@@ -12373,22 +14490,23 @@
         <v>191</v>
       </c>
       <c r="R192" s="2">
-        <v>2600</v>
+        <v>3394500</v>
       </c>
       <c r="S192">
-        <v>2400</v>
+        <v>3378500</v>
       </c>
       <c r="T192">
-        <v>2400</v>
-      </c>
-      <c r="U192" s="4">
-        <v>2200</v>
+        <v>3256500</v>
+      </c>
+      <c r="U192">
+        <v>3016400</v>
       </c>
       <c r="V192">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3228500</v>
+      </c>
+      <c r="X192"/>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>16588800</v>
       </c>
@@ -12435,22 +14553,23 @@
         <v>192</v>
       </c>
       <c r="R193" s="2">
-        <v>2600</v>
+        <v>3394600</v>
       </c>
       <c r="S193">
-        <v>2400</v>
+        <v>3378600</v>
       </c>
       <c r="T193">
-        <v>2400</v>
-      </c>
-      <c r="U193" s="4">
-        <v>2100</v>
+        <v>3256600</v>
+      </c>
+      <c r="U193">
+        <v>3016500</v>
       </c>
       <c r="V193">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3228700</v>
+      </c>
+      <c r="X193"/>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>16675200</v>
       </c>
@@ -12497,22 +14616,23 @@
         <v>193</v>
       </c>
       <c r="R194" s="2">
-        <v>2500</v>
+        <v>3394700</v>
       </c>
       <c r="S194">
-        <v>2200</v>
+        <v>3378800</v>
       </c>
       <c r="T194">
-        <v>2300</v>
-      </c>
-      <c r="U194" s="4">
-        <v>2200</v>
+        <v>3256700</v>
+      </c>
+      <c r="U194">
+        <v>3016700</v>
       </c>
       <c r="V194">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3228800</v>
+      </c>
+      <c r="X194"/>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>16761600</v>
       </c>
@@ -12559,22 +14679,23 @@
         <v>194</v>
       </c>
       <c r="R195" s="2">
-        <v>2600</v>
+        <v>3395000</v>
       </c>
       <c r="S195">
-        <v>2200</v>
+        <v>3378900</v>
       </c>
       <c r="T195">
-        <v>2100</v>
-      </c>
-      <c r="U195" s="4">
-        <v>2100</v>
+        <v>3257000</v>
+      </c>
+      <c r="U195">
+        <v>3016800</v>
       </c>
       <c r="V195">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3229000</v>
+      </c>
+      <c r="X195"/>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>16848000</v>
       </c>
@@ -12621,22 +14742,23 @@
         <v>195</v>
       </c>
       <c r="R196" s="2">
-        <v>2500</v>
+        <v>3395100</v>
       </c>
       <c r="S196">
-        <v>2200</v>
+        <v>3379000</v>
       </c>
       <c r="T196">
-        <v>2200</v>
-      </c>
-      <c r="U196" s="4">
-        <v>2100</v>
+        <v>3257200</v>
+      </c>
+      <c r="U196">
+        <v>3016900</v>
       </c>
       <c r="V196">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3229100</v>
+      </c>
+      <c r="X196"/>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>16934400</v>
       </c>
@@ -12683,22 +14805,23 @@
         <v>196</v>
       </c>
       <c r="R197" s="2">
-        <v>2400</v>
+        <v>3395200</v>
       </c>
       <c r="S197">
-        <v>2100</v>
+        <v>3379100</v>
       </c>
       <c r="T197">
-        <v>2100</v>
-      </c>
-      <c r="U197" s="4">
-        <v>2300</v>
+        <v>3257300</v>
+      </c>
+      <c r="U197">
+        <v>3017200</v>
       </c>
       <c r="V197">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3229400</v>
+      </c>
+      <c r="X197"/>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>17020800</v>
       </c>
@@ -12745,22 +14868,23 @@
         <v>197</v>
       </c>
       <c r="R198" s="2">
-        <v>2400</v>
+        <v>3395300</v>
       </c>
       <c r="S198">
-        <v>2200</v>
+        <v>3379300</v>
       </c>
       <c r="T198">
-        <v>2200</v>
-      </c>
-      <c r="U198" s="4">
-        <v>2500</v>
+        <v>3257500</v>
+      </c>
+      <c r="U198">
+        <v>3017500</v>
       </c>
       <c r="V198">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3229500</v>
+      </c>
+      <c r="X198"/>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>17107200</v>
       </c>
@@ -12807,22 +14931,23 @@
         <v>198</v>
       </c>
       <c r="R199" s="2">
-        <v>2500</v>
+        <v>3395500</v>
       </c>
       <c r="S199">
-        <v>2100</v>
+        <v>3379400</v>
       </c>
       <c r="T199">
-        <v>2200</v>
-      </c>
-      <c r="U199" s="4">
-        <v>2600</v>
+        <v>3257600</v>
+      </c>
+      <c r="U199">
+        <v>3017700</v>
       </c>
       <c r="V199">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3229600</v>
+      </c>
+      <c r="X199"/>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>17193600</v>
       </c>
@@ -12869,22 +14994,23 @@
         <v>199</v>
       </c>
       <c r="R200" s="2">
-        <v>2500</v>
+        <v>3395600</v>
       </c>
       <c r="S200">
-        <v>2100</v>
+        <v>3379500</v>
       </c>
       <c r="T200">
-        <v>2300</v>
-      </c>
-      <c r="U200" s="4">
-        <v>2500</v>
+        <v>3257800</v>
+      </c>
+      <c r="U200">
+        <v>3017800</v>
       </c>
       <c r="V200">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3229800</v>
+      </c>
+      <c r="X200"/>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>17280000</v>
       </c>
@@ -12931,20 +15057,21 @@
         <v>200</v>
       </c>
       <c r="R201" s="2">
-        <v>2500</v>
+        <v>3395700</v>
       </c>
       <c r="S201">
-        <v>2000</v>
+        <v>3379600</v>
       </c>
       <c r="T201">
-        <v>2300</v>
-      </c>
-      <c r="U201" s="4">
-        <v>2500</v>
+        <v>3257900</v>
+      </c>
+      <c r="U201">
+        <v>3017900</v>
       </c>
       <c r="V201">
-        <v>2400</v>
-      </c>
+        <v>3229900</v>
+      </c>
+      <c r="X201"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12955,8 +15082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B764EC-DB44-C845-9BFA-3F1C3C29A881}">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="J209" sqref="J209"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21814,8 +23941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952A0690-F09F-D547-A327-250B647C51D8}">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="J201" sqref="J201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30676,8 +32803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CAD03C-34DD-8748-BC1B-3F125387DE11}">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I201"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39536,7 +41663,7 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I201"/>
+      <selection activeCell="J2" sqref="J2:J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39570,8 +41697,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="I1">
+        <v>50</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -48398,8 +50525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982E0F33-DEEF-6D42-8921-D6DDFF23B53B}">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I201"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
